--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB3EE3-8601-4932-B518-751B802833CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4ED28E-528E-479C-B9E3-B1E5D59D16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cssmin" sheetId="2" r:id="rId1"/>
+    <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
+    <sheet name="Plugin Concat" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -300,6 +302,198 @@
   </si>
   <si>
     <t>new 構成</t>
+  </si>
+  <si>
+    <t>grunt-contrib-concat</t>
+  </si>
+  <si>
+    <t>Concat có tác dụng nối các file lại thành 1 file duy nhất</t>
+  </si>
+  <si>
+    <t>npm install grunt-contrib-concat --save-dev</t>
+  </si>
+  <si>
+    <t>install concat</t>
+  </si>
+  <si>
+    <t>        "grunt": "^1.5.3",</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-concat": "^2.1.0",</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-cssmin": "^4.0.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    grunt.loadNpmTasks('grunt-contrib-concat');</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>case-01.js</t>
+  </si>
+  <si>
+    <t>case-02.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* Comment */ </t>
+  </si>
+  <si>
+    <t>.abc {</t>
+  </si>
+  <si>
+    <t>    background-color: yellow;</t>
+  </si>
+  <si>
+    <t>    color: red;</t>
+  </si>
+  <si>
+    <t>.def {</t>
+  </si>
+  <si>
+    <t>    width: 200px;</t>
+  </si>
+  <si>
+    <t>    height: 300px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            inputJS		: 'development/js',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            outputJS	: 'production/js',</t>
+  </si>
+  <si>
+    <r>
+      <t>    grunt.registerTask('abc', ['cssmin', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']);</t>
+    </r>
+  </si>
+  <si>
+    <t>        // Concat</t>
+  </si>
+  <si>
+    <t>        concat: {</t>
+  </si>
+  <si>
+    <t>                separator: '\n',</t>
+  </si>
+  <si>
+    <t>                stripBanners: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        '&lt;%= grunt.template.today("yyyy-mm-dd") %&gt; */' + '\n', </t>
+  </si>
+  <si>
+    <t>            dist: {</t>
+  </si>
+  <si>
+    <t>                src: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    '&lt;%= dirs.inputJS %&gt;/case-01.js', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    '&lt;%= dirs.inputJS %&gt;/case-02.js', </t>
+  </si>
+  <si>
+    <t>                ],</t>
+  </si>
+  <si>
+    <t>                dest: '&lt;%= dirs.outputJS %&gt;/result.js',</t>
+  </si>
+  <si>
+    <t>→Ký tự dùng để nối 2 tập tin với nhau</t>
+  </si>
+  <si>
+    <r>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mPkg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: grunt.file.readJSON('package.json'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gruntjs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>                banner: '/*! &lt;%= mPkg.name %&gt; - ' +</t>
+  </si>
+  <si>
+    <t>→Các comment trong file vẫn được giữ lại /* ... */</t>
+  </si>
+  <si>
+    <t>result.js</t>
+  </si>
+  <si>
+    <t>/*! gruntjs - 2022-07-15 */</t>
+  </si>
+  <si>
+    <t>console.log("FIle 01");</t>
+  </si>
+  <si>
+    <t>/* ABC */</t>
+  </si>
+  <si>
+    <t>console.log("FIle 02");</t>
   </si>
 </sst>
 </file>
@@ -428,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -445,6 +639,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,13 +664,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -520,15 +716,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>312897</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>170762</xdr:rowOff>
+      <xdr:rowOff>175208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -551,8 +747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="762000"/>
-          <a:ext cx="11419047" cy="5504762"/>
+          <a:off x="685800" y="866775"/>
+          <a:ext cx="11210925" cy="5404433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,13 +805,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>208364</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>18690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -652,15 +848,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>28345</xdr:rowOff>
+      <xdr:colOff>417740</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>37870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,7 +879,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="27146250"/>
+          <a:off x="647700" y="25822275"/>
           <a:ext cx="10876190" cy="1838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -703,7 +899,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -856,13 +1052,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -909,13 +1105,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -962,13 +1158,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1015,13 +1211,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>284794</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>104463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1059,13 +1255,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1112,13 +1308,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1171,7 +1367,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1189,6 +1385,973 @@
         <a:xfrm flipH="1">
           <a:off x="2895600" y="11830050"/>
           <a:ext cx="533400" cy="21755100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4D49ED-F917-BE4A-CF23-AEE2EF551D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="25727025"/>
+          <a:ext cx="352425" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE0C852-1E37-4DFB-879B-A789BAB7F803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="16392525"/>
+          <a:ext cx="28575" cy="7505700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475064</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAF9D2D-0362-40CE-BA11-71717866381A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17716500"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB0508E-BA4E-4029-8ADA-FAC8D56681BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4429125" y="15192375"/>
+          <a:ext cx="2495550" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E66DFF-D0A0-48B3-9DBA-DBE89971B5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4410075" y="14973300"/>
+          <a:ext cx="2533650" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1771329-CBC9-4F61-BB64-A9309605D553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="29698950"/>
+          <a:ext cx="847725" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D95ADA-494F-4753-8C16-F282D29DC677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="35032950"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417636</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89261EB-933D-E5A4-4396-9494316CFB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="923925"/>
+          <a:ext cx="11714286" cy="6247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541426</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D0006B-85A7-5008-CC55-D794CAA42B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="11990476" cy="6276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EB16B2-A7C5-39BD-9625-54BEE5F96AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="12020550"/>
+          <a:ext cx="1228725" cy="14535150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217702</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>104418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490B6B88-9DD8-4F06-9A1B-D921B57BD6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="26774775"/>
+          <a:ext cx="10980952" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6F95BF-0A75-262D-534B-ADA8C43ECA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="24936450"/>
+          <a:ext cx="2428875" cy="5991225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AB3574-1D51-395E-B8D0-37DCF044E936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="13401675"/>
+          <a:ext cx="857250" cy="24384000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3069F9EE-48C8-C22A-49D1-DA314E1DEE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="26670000"/>
+          <a:ext cx="238125" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19BA2B9-62D4-14AB-252F-E50EF301E105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="34280475"/>
+          <a:ext cx="1114425" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>570536</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>104438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFFAC96-A182-7769-DB18-09702E8A5B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="44272200"/>
+          <a:ext cx="7714286" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DFDA4B-8BF1-846E-7CF3-859A920052F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="504825" y="50282475"/>
+          <a:ext cx="3200400" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0934CE2E-4DA2-80CE-F708-A322DF0BED19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="847725" y="39785925"/>
+          <a:ext cx="342900" cy="11525250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B34909-6E1A-E0A6-327A-9FEC03FBCA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="971550" y="41119425"/>
+          <a:ext cx="628650" cy="12096750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1480,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C04CC-92D0-488C-9229-3AB40D471F2E}">
-  <dimension ref="A2:Q225"/>
+  <dimension ref="A2:Q250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="M207" sqref="M207"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,20 +2654,26 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -1605,603 +2774,534 @@
       <c r="F83" s="8"/>
       <c r="G83" s="10"/>
     </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>12</v>
-      </c>
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="5"/>
-      <c r="C113" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="6"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="6"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="5"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="6"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" s="6"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="5"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" s="6"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="6"/>
-      <c r="I119" t="s">
-        <v>8</v>
-      </c>
-      <c r="J119" t="s">
-        <v>19</v>
-      </c>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="5"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="6"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="5"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="6"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="14"/>
-      <c r="Q121" s="14"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="10"/>
-      <c r="I122" t="s">
-        <v>8</v>
-      </c>
-      <c r="J122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>21</v>
-      </c>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
-      <c r="O125" s="14"/>
-      <c r="P125" s="14"/>
-      <c r="Q125" s="14"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" s="14"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="14"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="14"/>
-      <c r="Q126" s="14"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="5" t="s">
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="6"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="6"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="6"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" s="6"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" s="6"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="6"/>
+      <c r="I134" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" t="s">
+        <v>19</v>
+      </c>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="6"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="6"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="10"/>
+      <c r="I137" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="12" t="s">
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B144" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="13"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="12" t="s">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="13"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="12" t="s">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="5"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="5"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="5" t="s">
-        <v>51</v>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B169" s="5" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="10"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
@@ -2209,9 +3309,9 @@
       <c r="F176" s="14"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
@@ -2219,27 +3319,27 @@
       <c r="F177" s="14"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="5"/>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="14"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
-        <v>60</v>
-      </c>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
@@ -2247,9 +3347,9 @@
       <c r="F180" s="14"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
@@ -2257,9 +3357,9 @@
       <c r="F181" s="14"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
@@ -2267,237 +3367,1928 @@
       <c r="F182" s="14"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="10"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="5"/>
-      <c r="C204" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
       <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="5"/>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C205" s="14"/>
-      <c r="D205" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="D205" s="14"/>
       <c r="E205" s="14"/>
       <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="5"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
-      <c r="E206" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="E206" s="14"/>
       <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="5"/>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
       <c r="E207" s="14"/>
-      <c r="F207" s="14" t="s">
+      <c r="F207" s="14"/>
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+      <c r="C229" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G207" s="14"/>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="5"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="5"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G237" s="14"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H238" s="6"/>
+      <c r="I238" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="5"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H239" s="6"/>
+      <c r="I239" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="7"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="10"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="10"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="7"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44F453-1BC1-4445-8BEC-9989BC9F1192}">
+  <dimension ref="A2:Q281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="G280" sqref="G280"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="G84" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="G85" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="F86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="G87" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="G88" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="6"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="6"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="6"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="6"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="6"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="6"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="6"/>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" t="s">
+        <v>19</v>
+      </c>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="6"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="6"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="10"/>
+      <c r="I141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="10"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
       <c r="F208" s="14"/>
-      <c r="G208" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="5"/>
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
       <c r="F209" s="14"/>
-      <c r="G209" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B210" s="5"/>
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
-      <c r="E210" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E210" s="14"/>
       <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G210" s="6"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
-      <c r="E211" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="E211" s="14"/>
       <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B212" s="5"/>
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
-      <c r="F212" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G212" s="14"/>
-      <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B213" s="5"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
       <c r="E213" s="14"/>
       <c r="F213" s="14"/>
-      <c r="G213" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H213" s="6"/>
-      <c r="I213" t="s">
-        <v>8</v>
-      </c>
-      <c r="J213" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B214" s="5"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
       <c r="F214" s="14"/>
-      <c r="G214" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H214" s="6"/>
-      <c r="I214" t="s">
-        <v>8</v>
-      </c>
-      <c r="J214" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B215" s="5"/>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
-      <c r="E215" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="E215" s="14"/>
       <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
-      <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B216" s="7"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="10"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B220" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="10"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B222" s="14"/>
+      <c r="G215" s="6"/>
+      <c r="I215" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="6"/>
+      <c r="I216" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="6"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B260" s="5"/>
+      <c r="C260" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B261" s="5"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B262" s="5"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B263" s="5"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G263" s="14"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B264" s="5"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B265" s="5"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B266" s="5"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B267" s="5"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B268" s="5"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" s="14"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B269" s="5"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H269" s="6"/>
+      <c r="I269" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B270" s="5"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B224" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="7"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="10"/>
+      <c r="H270" s="6"/>
+      <c r="I270" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G271" s="14"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B272" s="5"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H272" s="6"/>
+      <c r="I272" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="5"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="7"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+      <c r="H274" s="10"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4ED28E-528E-479C-B9E3-B1E5D59D16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8286EE29-DE34-42F7-BFDE-132F36941102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
     <sheet name="Plugin Concat" sheetId="4" r:id="rId2"/>
+    <sheet name="Plugin Uglify" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="166">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -495,6 +495,187 @@
   <si>
     <t>console.log("FIle 02");</t>
   </si>
+  <si>
+    <t>Uglify có tác dụng minify các tập tin javascript với thư viện UglifyJS</t>
+  </si>
+  <si>
+    <t>npm install grunt-contrib-uglify --save-dev</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-cssmin": "^4.0.0",</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-uglify": "^5.2.2"</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-uglify');</t>
+  </si>
+  <si>
+    <t>case-03.js</t>
+  </si>
+  <si>
+    <t>console.log("test console");</t>
+  </si>
+  <si>
+    <t>var enter = "&lt;br /&gt;";</t>
+  </si>
+  <si>
+    <t>// Cách 02</t>
+  </si>
+  <si>
+    <t>this.myValidate2 = function(value1, value2){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // Thuộc tính</t>
+  </si>
+  <si>
+    <t>    this.data   =   "First value";      // Public</t>
+  </si>
+  <si>
+    <t>    this.msg    =   value2;     // Public</t>
+  </si>
+  <si>
+    <t>    var private =   "Private text";         // Private</t>
+  </si>
+  <si>
+    <t>    // Phương thức</t>
+  </si>
+  <si>
+    <t>    this.getData    = getData;</t>
+  </si>
+  <si>
+    <t>    this.getMsg     = getMsg;</t>
+  </si>
+  <si>
+    <t>    this.getPrivate = getPrivate;</t>
+  </si>
+  <si>
+    <t>    this.setData    = setData;</t>
+  </si>
+  <si>
+    <t>    // Xây dựng phương thức</t>
+  </si>
+  <si>
+    <t>    function getData(){</t>
+  </si>
+  <si>
+    <t>        return this.data;</t>
+  </si>
+  <si>
+    <t>    function getMsg(){</t>
+  </si>
+  <si>
+    <t>        return this.msg;</t>
+  </si>
+  <si>
+    <t>    function getPrivate(){</t>
+  </si>
+  <si>
+    <t>        return private;</t>
+  </si>
+  <si>
+    <t>    function setData(val){</t>
+  </si>
+  <si>
+    <t>        this.data = val;</t>
+  </si>
+  <si>
+    <t>this.myValidate3 = function(){</t>
+  </si>
+  <si>
+    <t>    myValidate2.call(this);</t>
+  </si>
+  <si>
+    <t>var myObj = new myValidate3();</t>
+  </si>
+  <si>
+    <t>document.write("Properties: " + myObj.data + enter);</t>
+  </si>
+  <si>
+    <t>myObj.setData("Second value");</t>
+  </si>
+  <si>
+    <t>document.write("Properties: " + myObj.data);</t>
+  </si>
+  <si>
+    <r>
+      <t>    grunt.registerTask('abc', ['cssmin', 'concat', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uglify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']);</t>
+    </r>
+  </si>
+  <si>
+    <t>        // Uglify</t>
+  </si>
+  <si>
+    <t>        uglify: {</t>
+  </si>
+  <si>
+    <t>                beautify: false,</t>
+  </si>
+  <si>
+    <t>                compress: {</t>
+  </si>
+  <si>
+    <t>                    drop_console: true</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            my_target: {</t>
+  </si>
+  <si>
+    <t>                files: {</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.outputJS %&gt;/case-03.min.js': ['&lt;%= dirs.inputJS %&gt;/case-03.js']</t>
+  </si>
+  <si>
+    <t>Tắt các câu lệnh console trong file đã minify</t>
+  </si>
+  <si>
+    <t>Format định dạng của file đã minify. Nếu có beautify thì dung lượng của file đã minify vẫn còn lớn</t>
+  </si>
+  <si>
+    <t>case-03.min.js</t>
+  </si>
+  <si>
+    <t>var enter="&lt;br /&gt;",myObj=(this.myValidate2=function(t,e){this.data="First value",this.msg=e;this.getData=function(){return this.data},this.getMsg=function(){return this.msg},this.getPrivate=function(){return"Private text"},this.setData=function(t){this.data=t}},this.myValidate3=function(){myValidate2.call(this)},new myValidate3);document.write("Properties: "+myObj.data+enter),myObj.setData("Second value"),document.write("Properties: "+myObj.data);</t>
+  </si>
+  <si>
+    <t>console.log("test console");  ở đầu đã bị mất đi</t>
+  </si>
+  <si>
+    <t>Khi thiết lập beautify là false thì dung lượng file minify sẽ nhỏ đi và tất cả code sẽ được đưa về 1 dòng</t>
+  </si>
+  <si>
+    <t>Online: https://skalman.github.io/UglifyJS-online/</t>
+  </si>
+  <si>
+    <t>beautify</t>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +707,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -641,6 +828,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,6 +2566,1106 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A9C2A2-5196-4F26-B789-BC0E9878BC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="17916525"/>
+          <a:ext cx="28575" cy="9601200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475064</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD7175C-298F-4EAD-BC08-D7E42E83E259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20764500"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A303660-7678-4B17-BBC3-0FD7CF53B3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4772025" y="16144875"/>
+          <a:ext cx="2495550" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FC7F0B-4ED9-4552-AC8F-1722902F7793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="15925800"/>
+          <a:ext cx="2533650" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CD0630-209F-4E5D-A842-78B812B205D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="36366450"/>
+          <a:ext cx="847725" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611EF341-17C0-432A-841A-16F733962D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="36556950"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541426</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5107D00-E803-40AF-A70C-2C8C2B519788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7747701"/>
+          <a:ext cx="11990476" cy="5639788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE821966-1D9D-47CE-B5EB-DF503A1A91F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="11277600"/>
+          <a:ext cx="1343025" cy="17564100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>134834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208177</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>17209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E10AD7E-7FA5-484E-A1E7-5141A25E9726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="28519334"/>
+          <a:ext cx="10980952" cy="1787375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D6EA90-B4AF-4345-8534-2589965F2876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="27603450"/>
+          <a:ext cx="2428875" cy="8086725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD5BC87-525F-441F-BD84-4678F7B3A467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2647950" y="12601575"/>
+          <a:ext cx="1028700" cy="29794200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A92D1C0-A2CF-4320-98D2-59595AE56700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="28384500"/>
+          <a:ext cx="238125" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438CB6D6-4212-4ABE-9864-7AFDFFEA113E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="504825" y="51806475"/>
+          <a:ext cx="3200400" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436686</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406C5519-9721-0695-F18E-6DA8317DB91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="904875"/>
+          <a:ext cx="11714286" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B56712-BFBB-AEE7-0D89-2723925A80CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="18468975"/>
+          <a:ext cx="723900" cy="31718250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56169</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>104381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD5EF6D-685A-6383-9A64-F8F869C8DE1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="54483000"/>
+          <a:ext cx="7847619" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0029B-DC19-2B1C-5104-BDBBE8494C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="676275" y="50292000"/>
+          <a:ext cx="942975" cy="11496675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CCF885-8B29-92A7-AA1E-468A6F9D25A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="61645800"/>
+          <a:ext cx="885825" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341277</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>8711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028FC4FD-FC1C-29CE-019D-C181B2120203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="62836425"/>
+          <a:ext cx="12980952" cy="6514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341274</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>94452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6E548A-7276-CC60-548A-4A52922FBBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="69913500"/>
+          <a:ext cx="13009524" cy="6380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341274</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>56333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A048918C-6953-2E2D-A5BA-8B0E5031A139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="76581000"/>
+          <a:ext cx="13009524" cy="6533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>331750</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>27762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26591326-A105-A94C-A7CC-BE6ECEB97A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83439000"/>
+          <a:ext cx="13000000" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3856,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44F453-1BC1-4445-8BEC-9989BC9F1192}">
   <dimension ref="A2:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="G280" sqref="G280"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,4 +6586,2191 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042459B9-736C-48AC-8424-83D20A2835D6}">
+  <dimension ref="A2:Q367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="F480" sqref="F480"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="G79" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="G80" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="G83" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="G84" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="6"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="6"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" s="14"/>
+      <c r="H165" s="6"/>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14"/>
+      <c r="O165" s="14"/>
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" s="6"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" s="6"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G168" s="14"/>
+      <c r="H168" s="6"/>
+      <c r="L168" s="14"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="14"/>
+      <c r="Q168" s="14"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H169" s="6"/>
+      <c r="L169" s="14"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" s="6"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="14"/>
+      <c r="Q170" s="14"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H171" s="6"/>
+      <c r="L171" s="14"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="14"/>
+      <c r="Q171" s="14"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="6"/>
+      <c r="I172" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" t="s">
+        <v>19</v>
+      </c>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14"/>
+      <c r="O172" s="14"/>
+      <c r="P172" s="14"/>
+      <c r="Q172" s="14"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="6"/>
+      <c r="L173" s="14"/>
+      <c r="M173" s="14"/>
+      <c r="N173" s="14"/>
+      <c r="O173" s="14"/>
+      <c r="P173" s="14"/>
+      <c r="Q173" s="14"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="6"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14"/>
+      <c r="O174" s="14"/>
+      <c r="P174" s="14"/>
+      <c r="Q174" s="14"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="10"/>
+      <c r="I175" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B182" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B183" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B184" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="10"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="10"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C242" s="19"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C243" s="19"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" s="19"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" s="19"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="6"/>
+      <c r="J245" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C246" s="19"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="6"/>
+      <c r="J246" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C247" s="19"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C248" s="19"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C249" s="19"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" s="19"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C251" s="19"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C252" s="19"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C253" s="19"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C254" s="19"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C255" s="19"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="6"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256" s="19"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C257" s="19"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="18"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C259" s="19"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C260" s="15"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C261" s="15"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="6"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C262" s="15"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="6"/>
+      <c r="J262" t="s">
+        <v>8</v>
+      </c>
+      <c r="K262" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C263" s="15"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="6"/>
+      <c r="K263" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C264" s="15"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="6"/>
+      <c r="J264" t="s">
+        <v>8</v>
+      </c>
+      <c r="K264" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C265" s="15"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="6"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C266" s="15"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="6"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C267" s="15"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="6"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C268" s="15"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="6"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C269" s="15"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="6"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C270" s="15"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="6"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C271" s="15"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="6"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C272" s="15"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="6"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="6"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="5"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="6"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="6"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="6"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="6"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="7"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="10"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B306" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="4"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B307" s="5"/>
+      <c r="C307" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B308" s="5"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B309" s="5"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B310" s="5"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G310" s="14"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B311" s="5"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B312" s="5"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B313" s="5"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B314" s="5"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B315" s="5"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G315" s="14"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H316" s="6"/>
+      <c r="I316" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B317" s="5"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H317" s="6"/>
+      <c r="I317" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B318" s="5"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G318" s="14"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H319" s="6"/>
+      <c r="I319" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B321" s="7"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+      <c r="H321" s="10"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>160</v>
+      </c>
+      <c r="D324" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B325" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="20"/>
+      <c r="F327" s="21"/>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21"/>
+      <c r="I327" s="21"/>
+      <c r="J327" s="21"/>
+      <c r="K327" s="21"/>
+      <c r="L327" s="21"/>
+      <c r="M327" s="21"/>
+      <c r="N327" s="21"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8286EE29-DE34-42F7-BFDE-132F36941102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6922D-7151-4A86-9CE8-B1A55485B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
     <sheet name="Plugin Concat" sheetId="4" r:id="rId2"/>
     <sheet name="Plugin Uglify" sheetId="5" r:id="rId3"/>
+    <sheet name="Plugin SASS" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="215">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -675,6 +676,219 @@
   </si>
   <si>
     <t>beautify</t>
+  </si>
+  <si>
+    <t>grunt-contrib-uglify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có tác dụng dịch từ sass sang css </t>
+  </si>
+  <si>
+    <t>npm install grunt-contrib-sass --save-dev</t>
+  </si>
+  <si>
+    <t>grunt-contrib-sass</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-sass": "^2.0.0",</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>style-01.scss</t>
+  </si>
+  <si>
+    <t>$color-red      : #F0682D;</t>
+  </si>
+  <si>
+    <t>$color-blue     : #62B0F1;</t>
+  </si>
+  <si>
+    <t>$color-yellow   : #F4EE29;</t>
+  </si>
+  <si>
+    <t>.btn {</t>
+  </si>
+  <si>
+    <t>    padding: 10px 10px;</t>
+  </si>
+  <si>
+    <t>    text-align: center;</t>
+  </si>
+  <si>
+    <t>    cursor: pointer;</t>
+  </si>
+  <si>
+    <t>    font-weight: bold;</t>
+  </si>
+  <si>
+    <t>// btn-red btn-blue btn-yellow</t>
+  </si>
+  <si>
+    <t>$color-button: (</t>
+  </si>
+  <si>
+    <t>    red     : $color-red,</t>
+  </si>
+  <si>
+    <t>    blue    : $color-blue,</t>
+  </si>
+  <si>
+    <t>    yellow  : $color-yellow</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>@each $key, $value in $color-button {</t>
+  </si>
+  <si>
+    <t>    .btn-#{$key} {</t>
+  </si>
+  <si>
+    <t>        background-color: $value;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t>            inputSCSS   : 'development/scss',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    grunt.loadNpmTasks('grunt-contrib-sass');</t>
+  </si>
+  <si>
+    <r>
+      <t>    grunt.registerTask('abc', ['cssmin', 'concat', 'uglify', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']);</t>
+    </r>
+  </si>
+  <si>
+    <t>        // SASS</t>
+  </si>
+  <si>
+    <t>        sass: {</t>
+  </si>
+  <si>
+    <t>                options: {</t>
+  </si>
+  <si>
+    <t>                    style: 'expanded',</t>
+  </si>
+  <si>
+    <t>                },</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.outputCSS %&gt;/result.css': '&lt;%= dirs.inputSCSS %&gt;/style-01.scss'</t>
+  </si>
+  <si>
+    <t>                    sourcemap: 'none',</t>
+  </si>
+  <si>
+    <t>Không cần tạo file map đến source</t>
+  </si>
+  <si>
+    <t>result.css</t>
+  </si>
+  <si>
+    <t>  padding: 10px 10px;</t>
+  </si>
+  <si>
+    <t>  text-align: center;</t>
+  </si>
+  <si>
+    <t>  cursor: pointer;</t>
+  </si>
+  <si>
+    <t>  font-weight: bold;</t>
+  </si>
+  <si>
+    <t>.btn-red {</t>
+  </si>
+  <si>
+    <t>  background-color: #F0682D;</t>
+  </si>
+  <si>
+    <t>.btn-blue {</t>
+  </si>
+  <si>
+    <t>  background-color: #62B0F1;</t>
+  </si>
+  <si>
+    <t>.btn-yellow {</t>
+  </si>
+  <si>
+    <t>  background-color: #F4EE29;</t>
+  </si>
+  <si>
+    <r>
+      <t>                banner: '/*! &lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mPkg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.name %&gt; - ' +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                banner: '/*! &lt;%= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mPkg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.name %&gt; - ' +</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -809,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -832,6 +1046,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3666,6 +3884,887 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F20DD-DAF8-67C3-EBDA-6DA1155D7F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="41481375"/>
+          <a:ext cx="1143000" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F10F285-BFB7-46F2-A5E7-BDA79BE5B702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="17154525"/>
+          <a:ext cx="28575" cy="16840200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475064</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F726DB52-6B95-4D7F-9537-9DBE316ABE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27051000"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B90951-CBBA-4C75-AADF-0B458EFDD29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4772025" y="15192375"/>
+          <a:ext cx="2495550" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B433156F-0BC6-48F3-8E88-27927A89D872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="14973300"/>
+          <a:ext cx="2533650" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EF3978-E94A-45F5-B6D5-951C319E55D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="42081450"/>
+          <a:ext cx="847725" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67FCF16-FC8F-4F4B-BF26-A061433BE304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="42271950"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180791</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170135</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>52489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4950C22-C8CF-4E63-9DB6-BD012CCD882A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790391" y="6795201"/>
+          <a:ext cx="10828794" cy="5639788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A03429E-2E44-4682-A941-AD8D2822C879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="9896475"/>
+          <a:ext cx="1209675" cy="25231725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109860</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>68159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>325090</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF6B45F-E7EA-4B89-8422-1445DD474774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719460" y="35691659"/>
+          <a:ext cx="7397080" cy="1989241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247A1B1A-98D3-4F9C-BF3D-B7C322FA0A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="34080450"/>
+          <a:ext cx="2428875" cy="7324725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AA92D9-2C27-44E4-A3D2-D6C4BFB3F346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2600325" y="11353800"/>
+          <a:ext cx="647700" cy="40957500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9CDEB1-A1DE-4E61-A91F-B6B3C33F800D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="35814000"/>
+          <a:ext cx="238125" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB2294C-A4E3-4382-9680-2331FBCF2E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="504825" y="64598550"/>
+          <a:ext cx="3209925" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>360486</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51907100-7E94-4F9C-9EEB-9838B5669DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="895752"/>
+          <a:ext cx="11714286" cy="5580083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>68620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>158424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB390D78-2207-4263-AE4B-3AA45EEB033E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="54170620"/>
+          <a:ext cx="7515225" cy="5804804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCA2646-10D5-FA62-D5F3-C29B3C8FF17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="38661975"/>
+          <a:ext cx="1162050" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5147,7 +6246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44F453-1BC1-4445-8BEC-9989BC9F1192}">
   <dimension ref="A2:Q281"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A210" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -6592,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042459B9-736C-48AC-8424-83D20A2835D6}">
   <dimension ref="A2:Q367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="F480" sqref="F480"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6603,7 +7702,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8055,7 +9154,7 @@
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B247" s="18" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="C247" s="19"/>
       <c r="D247" s="14"/>
@@ -8773,4 +9872,2414 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D978ADEF-8F08-4857-950C-850F868F0C79}">
+  <dimension ref="A2:Q362"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I366" sqref="I366"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="G76" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="G77" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="G79" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="G80" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="G81" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="F82" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="G83" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="6"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="6"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" s="14"/>
+      <c r="H147" s="6"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" s="6"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="6"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="6"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" s="6"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" s="6"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" t="s">
+        <v>171</v>
+      </c>
+      <c r="G154" s="19"/>
+      <c r="H154" s="6"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="G155" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H155" s="6"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="6"/>
+      <c r="I156" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="6"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="6"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="10"/>
+      <c r="I159" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" t="s">
+        <v>20</v>
+      </c>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B167" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B168" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="10"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="10"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C228" s="19"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="19"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C231" s="19"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="6"/>
+      <c r="J231" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="6"/>
+      <c r="J232" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C233" s="19"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="19"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="19"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C236" s="19"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C237" s="19"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C238" s="19"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240" s="19"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C241" s="19"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C242" s="19"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C243" s="19"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="18"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C245" s="19"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C246" s="19"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="19"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+      <c r="I248" s="6"/>
+      <c r="J248" t="s">
+        <v>8</v>
+      </c>
+      <c r="K248" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+      <c r="I249" s="6"/>
+      <c r="K249" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="19"/>
+      <c r="I250" s="6"/>
+      <c r="J250" t="s">
+        <v>8</v>
+      </c>
+      <c r="K250" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="19"/>
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="19"/>
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="19"/>
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="19"/>
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="19"/>
+      <c r="I255" s="6"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="19"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="19"/>
+      <c r="H257" s="19"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="19"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="18"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="19"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C260" s="15"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="15"/>
+      <c r="I260" s="13"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="15"/>
+      <c r="I261" s="13"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="15"/>
+      <c r="I262" s="13"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="13"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C264" s="15"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="13"/>
+      <c r="J264" t="s">
+        <v>8</v>
+      </c>
+      <c r="K264" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="15"/>
+      <c r="I265" s="13"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="13"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C267" s="15"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="15"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="13"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C268" s="15"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="15"/>
+      <c r="H268" s="15"/>
+      <c r="I268" s="13"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="15"/>
+      <c r="H269" s="15"/>
+      <c r="I269" s="13"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C270" s="15"/>
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="15"/>
+      <c r="H270" s="15"/>
+      <c r="I270" s="13"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="13"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="5"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="6"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="6"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="6"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="6"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="7"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="10"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="4"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G322" s="14"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G325" s="14"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B326" s="5"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B328" s="5"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" t="s">
+        <v>171</v>
+      </c>
+      <c r="G329" s="19"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="G330" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" s="14"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H334" s="6"/>
+      <c r="I334" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B335" s="5"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="14"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H335" s="6"/>
+      <c r="I335" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B336" s="5"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G336" s="14"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B337" s="5"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H337" s="22"/>
+      <c r="I337" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B338" s="5"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G338" s="19"/>
+      <c r="H338" s="22"/>
+      <c r="I338" s="24"/>
+      <c r="J338" s="24"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B339" s="5"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H339" s="22"/>
+      <c r="I339" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B340" s="5"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340" s="14"/>
+      <c r="G340" s="14"/>
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B341" s="7"/>
+      <c r="C341" s="8"/>
+      <c r="D341" s="8"/>
+      <c r="E341" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341" s="8"/>
+      <c r="G341" s="8"/>
+      <c r="H341" s="10"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B345" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B346" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="6"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="6"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B348" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="6"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B349" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="6"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B350" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B351" s="5"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="6"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B352" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="6"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="6"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="6"/>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="6"/>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="6"/>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="6"/>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="6"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="6"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6922D-7151-4A86-9CE8-B1A55485B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B169E1A3-A5D7-41BD-89D7-2BDC2136D861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
     <sheet name="Plugin Concat" sheetId="4" r:id="rId2"/>
     <sheet name="Plugin Uglify" sheetId="5" r:id="rId3"/>
     <sheet name="Plugin SASS" sheetId="6" r:id="rId4"/>
+    <sheet name="Plugin watch" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="241">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -890,12 +891,124 @@
       <t>.name %&gt; - ' +</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">grunt-contrib-watch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mỗi lần có thay đổi gì đó thì tự động nó thực hiện nhiệm vụ là gọi đến task. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nó sẽ quan sát các tập tin mình quy định, nếu các tập tin đó có sự thay đổi gì đó thì nó sẽ thực </t>
+  </si>
+  <si>
+    <t>hiện nhiệm vụ tương ứng do chúng ta quy định</t>
+  </si>
+  <si>
+    <t>npm install grunt-contrib-watch --save-dev</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-watch');</t>
+  </si>
+  <si>
+    <t>        // WATCH</t>
+  </si>
+  <si>
+    <t>        watch: {</t>
+  </si>
+  <si>
+    <t>            scripts: {</t>
+  </si>
+  <si>
+    <t>                files: [</t>
+  </si>
+  <si>
+    <t>                tasks: [</t>
+  </si>
+  <si>
+    <t>                    'sass',</t>
+  </si>
+  <si>
+    <t>Các tập tin muốn theo dõi</t>
+  </si>
+  <si>
+    <t>Khi tác tập tin quy định trên có thay đổi gì đó thì nó sẽ thực hiện task được quy định ở đây</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputSCSS %&gt;/*.scss'</t>
+  </si>
+  <si>
+    <t>                    'cssmin'</t>
+  </si>
+  <si>
+    <t>                    spawn: false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    grunt.registerTask('default', ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    grunt.registerTask('abc', ['cssmin', 'concat', 'uglify', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sass']);</t>
+    </r>
+  </si>
+  <si>
+    <t>grunt</t>
+  </si>
+  <si>
+    <t>Khi file Gruntfile.js có bất kỳ sự thay đổi nào thì cần phải Ctrl+C để chạy lại grunt</t>
+  </si>
+  <si>
+    <t>Đang chờ sự thay đổi</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung style-01.scss</t>
+  </si>
+  <si>
+    <t>    padding: 16px 16px;</t>
+  </si>
+  <si>
+    <t>Changed</t>
+  </si>
+  <si>
+    <t>  padding: 16px 16px;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +1019,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1023,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1050,6 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4765,6 +4886,1143 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50EE312-F34A-4D13-87A7-544CA29AB284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="16964025"/>
+          <a:ext cx="28575" cy="13982700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475064</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0ABD266-907C-456B-993D-534D268D9A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23622000"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFE8A69-D623-413F-9CD0-91BF5348ACB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4772025" y="14620875"/>
+          <a:ext cx="2495550" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02081FA1-5A03-4397-8AC3-FF6F59E9FD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="14401800"/>
+          <a:ext cx="2533650" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453D4258-2748-4CFC-9A9D-E91D4D7FD26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="39223950"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC0879D-CD2C-423F-8F3A-22F4D89F7BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="39414450"/>
+          <a:ext cx="847725" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65256</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>44718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06825A40-09A3-4581-BE52-12E7BE7AD483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674856" y="7071425"/>
+          <a:ext cx="10707519" cy="5736793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCA9EEB-A3CF-4AA1-A44A-DC9E84C95F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="11420475"/>
+          <a:ext cx="1666875" cy="21612225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71760</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>82788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330158</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E823F2-FE6E-47FA-BAD7-D30010B2F983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681360" y="33229788"/>
+          <a:ext cx="9878648" cy="1650762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCC540B-5A1B-41B2-9324-D26EB4A1EA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="31032450"/>
+          <a:ext cx="2428875" cy="7515225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D8325-3327-4E8D-AF7E-8F1369F75F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2543175" y="12630150"/>
+          <a:ext cx="990600" cy="40224075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837EF8AA-1033-4BDB-BE7F-CBDE999CDDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="32766000"/>
+          <a:ext cx="238125" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16AB746-38E3-44CA-A9DB-D8085DEC7704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="504825" y="64598550"/>
+          <a:ext cx="3209925" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350961</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA3725D-606D-4FD1-BFEE-35B0FF963866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1279498"/>
+          <a:ext cx="11714286" cy="5460291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>99836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486781</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF231B4-4678-496F-B754-6CECAB731731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="58011836"/>
+          <a:ext cx="8173456" cy="2205214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53164174-9AD6-4CF2-8989-86DEEFB19110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="38661975"/>
+          <a:ext cx="1162050" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751A6C17-5452-E34D-D189-CA7BA9A5174F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="52787550"/>
+          <a:ext cx="9525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C46C8DC-4FF0-BB81-A59A-F38A8D3D4D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="52358925"/>
+          <a:ext cx="1533525" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718693C3-7BCC-FD29-69B3-5A19CA399D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="990600" y="56759475"/>
+          <a:ext cx="942975" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092AC329-1C56-EAFA-05E4-3C0873CE162D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="59921775"/>
+          <a:ext cx="7629525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B216F9-EED7-DED2-D0E7-369E14172879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="19783425"/>
+          <a:ext cx="352425" cy="41995725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351412</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>123062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9223856B-79A2-DC52-ABE9-2625CCBCDBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="65836800"/>
+          <a:ext cx="8104762" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9878,7 +11136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D978ADEF-8F08-4857-950C-850F868F0C79}">
   <dimension ref="A2:Q362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I366" sqref="I366"/>
     </sheetView>
   </sheetViews>
@@ -12282,4 +13540,2931 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868C6FB3-96D8-46DE-9B46-7E0514AA611D}">
+  <dimension ref="A2:Q425"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J277" sqref="E277:J277"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="G78" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="G79" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="G81" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="G83" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="G85" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="I86" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="6"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="6"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="6"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="6"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" s="6"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="6"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H154" s="6"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H155" s="6"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" t="s">
+        <v>171</v>
+      </c>
+      <c r="G156" s="19"/>
+      <c r="H156" s="6"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="G157" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H157" s="6"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="6"/>
+      <c r="I158" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="6"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="6"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="10"/>
+      <c r="I161" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" t="s">
+        <v>20</v>
+      </c>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B168" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B169" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B170" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="10"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230" s="19"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="19"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="6"/>
+      <c r="J232" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C233" s="19"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="6"/>
+      <c r="J233" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C234" s="19"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" s="19"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C236" s="19"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" s="19"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C238" s="19"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C240" s="19"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C241" s="19"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C242" s="19"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C243" s="19"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244" s="19"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="18"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C246" s="19"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="19"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+      <c r="I249" s="6"/>
+      <c r="J249" t="s">
+        <v>8</v>
+      </c>
+      <c r="K249" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="19"/>
+      <c r="I250" s="6"/>
+      <c r="K250" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="19"/>
+      <c r="I251" s="6"/>
+      <c r="J251" t="s">
+        <v>8</v>
+      </c>
+      <c r="K251" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="19"/>
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="19"/>
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="19"/>
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="19"/>
+      <c r="I255" s="6"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="19"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="19"/>
+      <c r="H257" s="19"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="19"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" s="19"/>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="19"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="18"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="19"/>
+      <c r="G261" s="19"/>
+      <c r="H261" s="15"/>
+      <c r="I261" s="13"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="19"/>
+      <c r="G262" s="19"/>
+      <c r="H262" s="15"/>
+      <c r="I262" s="13"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="19"/>
+      <c r="G263" s="19"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="13"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C264" s="19"/>
+      <c r="D264" s="19"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="13"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="19"/>
+      <c r="G265" s="19"/>
+      <c r="H265" s="15"/>
+      <c r="I265" s="13"/>
+      <c r="J265" t="s">
+        <v>8</v>
+      </c>
+      <c r="K265" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C266" s="19"/>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="19"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="13"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="19"/>
+      <c r="G267" s="19"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="13"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="19"/>
+      <c r="G268" s="19"/>
+      <c r="H268" s="15"/>
+      <c r="I268" s="13"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="19"/>
+      <c r="H269" s="15"/>
+      <c r="I269" s="13"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C270" s="19"/>
+      <c r="D270" s="19"/>
+      <c r="E270" s="19"/>
+      <c r="F270" s="19"/>
+      <c r="G270" s="19"/>
+      <c r="H270" s="15"/>
+      <c r="I270" s="13"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="13"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="19"/>
+      <c r="G272" s="19"/>
+      <c r="H272" s="15"/>
+      <c r="I272" s="13"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B273" s="18"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="19"/>
+      <c r="H273" s="15"/>
+      <c r="I273" s="13"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C274" s="15"/>
+      <c r="D274" s="15"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="15"/>
+      <c r="H274" s="15"/>
+      <c r="I274" s="13"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B275" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C275" s="15"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="15"/>
+      <c r="H275" s="15"/>
+      <c r="I275" s="13"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B276" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C276" s="15"/>
+      <c r="D276" s="15"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="15"/>
+      <c r="I276" s="13"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B277" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C277" s="15"/>
+      <c r="D277" s="15"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="15"/>
+      <c r="H277" s="15"/>
+      <c r="I277" s="13"/>
+      <c r="J277" t="s">
+        <v>8</v>
+      </c>
+      <c r="K277" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B278" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C278" s="15"/>
+      <c r="D278" s="15"/>
+      <c r="E278" s="15"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="15"/>
+      <c r="I278" s="13"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B279" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C279" s="15"/>
+      <c r="D279" s="15"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="15"/>
+      <c r="I279" s="13"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B280" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C280" s="15"/>
+      <c r="D280" s="15"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="15"/>
+      <c r="I280" s="13"/>
+      <c r="J280" t="s">
+        <v>8</v>
+      </c>
+      <c r="K280" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B281" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C281" s="15"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="15"/>
+      <c r="I281" s="13"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B282" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C282" s="15"/>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="15"/>
+      <c r="I282" s="13"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B283" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="15"/>
+      <c r="I283" s="13"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B284" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C284" s="15"/>
+      <c r="D284" s="15"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="15"/>
+      <c r="H284" s="15"/>
+      <c r="I284" s="13"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B285" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C285" s="15"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="15"/>
+      <c r="H285" s="15"/>
+      <c r="I285" s="13"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B286" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C286" s="15"/>
+      <c r="D286" s="15"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="15"/>
+      <c r="H286" s="15"/>
+      <c r="I286" s="13"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B287" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C287" s="15"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="15"/>
+      <c r="H287" s="15"/>
+      <c r="I287" s="13"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B288" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C288" s="15"/>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="15"/>
+      <c r="H288" s="15"/>
+      <c r="I288" s="13"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="5"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="6"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="6"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="6"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B292" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="6"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B293" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="6"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B294" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="6"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B295" s="12"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="6"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="6"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="6"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B298" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="6"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="6"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="7"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="10"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P314" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>237</v>
+      </c>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B319" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B320" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="6"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="6"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="6"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="6"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="6"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="6"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="6"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="6"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="6"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="6"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="6"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="6"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="6"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="6"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="14"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="6"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="14"/>
+      <c r="G336" s="6"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="5"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="6"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="14"/>
+      <c r="G338" s="6"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="6"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B340" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="6"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B341" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="6"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B342" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="14"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="6"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B343" s="7"/>
+      <c r="C343" s="8"/>
+      <c r="D343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+      <c r="G343" s="10"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B381" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="4"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B382" s="5"/>
+      <c r="C382" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B383" s="5"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E383" s="14"/>
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B384" s="5"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B385" s="5"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G385" s="14"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B386" s="5"/>
+      <c r="C386" s="14"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="14"/>
+      <c r="F386" s="14"/>
+      <c r="G386" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B387" s="5"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+      <c r="E387" s="14"/>
+      <c r="F387" s="14"/>
+      <c r="G387" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B388" s="5"/>
+      <c r="C388" s="14"/>
+      <c r="D388" s="14"/>
+      <c r="E388" s="14"/>
+      <c r="F388" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G388" s="14"/>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B389" s="5"/>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14"/>
+      <c r="E389" s="14"/>
+      <c r="F389" s="14"/>
+      <c r="G389" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H389" s="6"/>
+    </row>
+    <row r="390" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B390" s="5"/>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14"/>
+      <c r="E390" s="14"/>
+      <c r="F390" s="14"/>
+      <c r="G390" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B391" s="5"/>
+      <c r="C391" s="14"/>
+      <c r="D391" s="14"/>
+      <c r="E391" s="14"/>
+      <c r="F391" s="14"/>
+      <c r="G391" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H391" s="6"/>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B392" s="5"/>
+      <c r="C392" s="14"/>
+      <c r="D392" s="14"/>
+      <c r="E392" s="14"/>
+      <c r="F392" t="s">
+        <v>171</v>
+      </c>
+      <c r="G392" s="19"/>
+      <c r="H392" s="6"/>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B393" s="5"/>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14"/>
+      <c r="E393" s="14"/>
+      <c r="G393" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H393" s="6"/>
+    </row>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B394" s="5"/>
+      <c r="C394" s="14"/>
+      <c r="D394" s="14"/>
+      <c r="E394" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F394" s="14"/>
+      <c r="G394" s="14"/>
+      <c r="H394" s="6"/>
+    </row>
+    <row r="395" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B395" s="5"/>
+      <c r="C395" s="14"/>
+      <c r="D395" s="14"/>
+      <c r="E395" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F395" s="14"/>
+      <c r="G395" s="14"/>
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B396" s="5"/>
+      <c r="C396" s="14"/>
+      <c r="D396" s="14"/>
+      <c r="E396" s="14"/>
+      <c r="F396" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G396" s="14"/>
+      <c r="H396" s="6"/>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B397" s="5"/>
+      <c r="C397" s="14"/>
+      <c r="D397" s="14"/>
+      <c r="E397" s="14"/>
+      <c r="F397" s="14"/>
+      <c r="G397" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H397" s="6"/>
+      <c r="I397" t="s">
+        <v>8</v>
+      </c>
+      <c r="J397" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="398" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B398" s="5"/>
+      <c r="C398" s="14"/>
+      <c r="D398" s="14"/>
+      <c r="E398" s="14"/>
+      <c r="F398" s="14"/>
+      <c r="G398" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H398" s="6"/>
+      <c r="I398" t="s">
+        <v>8</v>
+      </c>
+      <c r="J398" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="399" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B399" s="5"/>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14"/>
+      <c r="E399" s="14"/>
+      <c r="F399" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G399" s="14"/>
+      <c r="H399" s="6"/>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B400" s="5"/>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14"/>
+      <c r="E400" s="14"/>
+      <c r="F400" s="14"/>
+      <c r="G400" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H400" s="22"/>
+      <c r="I400" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J400" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B401" s="5"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="14"/>
+      <c r="E401" s="14"/>
+      <c r="F401" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G401" s="19"/>
+      <c r="H401" s="22"/>
+      <c r="I401" s="24"/>
+      <c r="J401" s="24"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B402" s="5"/>
+      <c r="C402" s="14"/>
+      <c r="D402" s="14"/>
+      <c r="E402" s="14"/>
+      <c r="F402" s="14"/>
+      <c r="G402" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H402" s="22"/>
+      <c r="I402" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J402" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B403" s="5"/>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+      <c r="E403" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F403" s="14"/>
+      <c r="G403" s="14"/>
+      <c r="H403" s="6"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B404" s="7"/>
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F404" s="8"/>
+      <c r="G404" s="8"/>
+      <c r="H404" s="10"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B408" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B409" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14"/>
+      <c r="E409" s="6"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B410" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B411" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B412" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B413" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B414" s="5"/>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B415" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B416" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B417" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C417" s="14"/>
+      <c r="D417" s="14"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B418" s="5"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B419" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="6"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B420" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C420" s="14"/>
+      <c r="D420" s="14"/>
+      <c r="E420" s="6"/>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B421" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="6"/>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B422" s="5"/>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="6"/>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B423" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="6"/>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B424" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C425" s="8"/>
+      <c r="D425" s="8"/>
+      <c r="E425" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B169E1A3-A5D7-41BD-89D7-2BDC2136D861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94C021-05EB-4766-81E7-0FF2B612CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Plugin Uglify" sheetId="5" r:id="rId3"/>
     <sheet name="Plugin SASS" sheetId="6" r:id="rId4"/>
     <sheet name="Plugin watch" sheetId="7" r:id="rId5"/>
+    <sheet name="Plugin connect" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="352">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -1003,12 +1004,367 @@
   <si>
     <t>  padding: 16px 16px;</t>
   </si>
+  <si>
+    <t>grunt-contrib-connect</t>
+  </si>
+  <si>
+    <t>npm install grunt-contrib-connect --save-dev</t>
+  </si>
+  <si>
+    <t>install uglify</t>
+  </si>
+  <si>
+    <t>install sass</t>
+  </si>
+  <si>
+    <t>install watch</t>
+  </si>
+  <si>
+    <t>install connect</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-connect": "^3.0.0",</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-uglify": "^5.2.2",</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-watch": "^1.1.0"</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-connect');</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>        // CONNECT</t>
+  </si>
+  <si>
+    <t>        connect: {</t>
+  </si>
+  <si>
+    <t>            server: {</t>
+  </si>
+  <si>
+    <t>                    options: {</t>
+  </si>
+  <si>
+    <t>                        hostname: 'localhost',</t>
+  </si>
+  <si>
+    <t>                        port: 3069,</t>
+  </si>
+  <si>
+    <t>                        base: 'production/',</t>
+  </si>
+  <si>
+    <t>                        livereload: true</t>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t>&lt;!-- I am a banner  --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta charset="utf-8" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta http-equiv="X-UA-Compatible" content="IE=edge" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- The above 3 meta tags *must* come first in the head; any other head content must come *after* these tags --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;title&gt;Bootstrap 101 Template&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- Bootstrap --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link href="css/bootstrap.min.css" rel="stylesheet" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HTML5 shim and Respond.js for IE8 support of HTML5 elements and media queries --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- WARNING: Respond.js doesn't work if you view the page via file:// --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!--[if lt IE 9]&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="https://oss.maxcdn.com/html5shiv/3.7.3/html5shiv.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="https://oss.maxcdn.com/respond/1.4.2/respond.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;![endif]--&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;nav class="navbar navbar-default" role="navigation"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;!-- Brand and toggle get grouped for better mobile display --&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="navbar-header"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;button type="button" class="navbar-toggle" data-toggle="collapse" data-target=".navbar-ex1-collapse"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;span class="sr-only"&gt;Toggle navigation&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;span class="icon-bar"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;a class="navbar-brand" href="#"&gt;Title&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;!-- Collect the nav links, forms, and other content for toggling --&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="collapse navbar-collapse navbar-ex1-collapse"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;ul class="nav navbar-nav"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;li class="active"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;form class="navbar-form navbar-left" role="search"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;div class="form-group"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;input type="text" class="form-control" placeholder="Search" /&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;ul class="nav navbar-nav navbar-right"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;li class="dropdown"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#" class="dropdown-toggle" data-toggle="dropdown"&gt;Dropdown &lt;b class="caret"&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;ul class="dropdown-menu"&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;a href="#"&gt;Action&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;a href="#"&gt;Another action&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;a href="#"&gt;Something else here&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;a href="#"&gt;Separated link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;!-- /.navbar-collapse --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="col-xs-8 col-sm-8 col-md-8 col-lg-8"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="col-xs-4 col-sm-4 col-md-4 col-lg-4"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;h3&gt;Right&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- jQuery (necessary for Bootstrap's JavaScript plugins) --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/jquery.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- Include all compiled plugins (below), or include individual files as needed --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Chạy 1 tập tin index.html mà trong tập tin này kéo vào các tập tin như css, js. Đôi khi thì 1 số tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tin js yêu cầu chúng ta chạy trên 1 webserver như xampp… chứ ko mở được trực tiếp thông qua </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đường dẫn vật lý của máy</t>
+  </si>
+  <si>
+    <t>Khi sử dụng plugin connect thì có 1 số tiện ích nữa đó là chức năng tự động refresh trình duyệt khi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mình thay đổi nội dung index.html</t>
+  </si>
+  <si>
+    <t>Dùng 1 port bất kỳ sao cho không bị đụng độ với port máy tính đang dùng như 80, 8080 của xampp…</t>
+  </si>
+  <si>
+    <t>Vào tập tin trong production để hiển thị</t>
+  </si>
+  <si>
+    <t>    grunt.registerTask('dev', ['connect', 'watch']);</t>
+  </si>
+  <si>
+    <t>Khi chạy task connect thì đồng thời phải chạy cả task watch thì mới hiển thị được tập tin thông qua</t>
+  </si>
+  <si>
+    <t>                    spawn: false,</t>
+  </si>
+  <si>
+    <t>                    livereload: true</t>
+  </si>
+  <si>
+    <t>Khi thay đổi nội dung tập tin thì sẽ tự động refresh trên trình duyệt. Tham số livereload cũng phải</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputSCSS %&gt;/*.scss',</t>
+  </si>
+  <si>
+    <t>                    'production/index.html',</t>
+  </si>
+  <si>
+    <t>được đưa vào cả option của task watch. Tập tin phải được theo dõi bởi task watch</t>
+  </si>
+  <si>
+    <t>Đối với tập tin html thì phải viết đúng cú pháp, đúng chuẩn html, có đầy đủ các thẻ head, meta, body…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> webserver. Sau khi connect-&gt; gọi đến watch để nắng nghe sự thay đổi của tập tin</t>
+  </si>
+  <si>
+    <t>                &lt;h3&gt;Left&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>grunt dev</t>
+  </si>
+  <si>
+    <t>bootstrap.min.css</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung index.html</t>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Left 123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Không cần Refresh nhưng trình duyệt sẽ tự Refresh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,13 +1375,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6023,6 +6372,1556 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C0A94C-C2E1-B0D2-7F86-589E8EDF6F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="33156525"/>
+          <a:ext cx="247650" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16797D2-0237-40E1-AC65-FFCA5D3244CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="17345025"/>
+          <a:ext cx="28575" cy="13982700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475064</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45944B95-0FEE-4E74-810B-568AA85521E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24003000"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC5332C-F90B-4E96-A4A3-DD9A7F28EEDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4772025" y="15001875"/>
+          <a:ext cx="2495550" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E737F9-851E-4B4C-80DA-A2524CFEF8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="14782800"/>
+          <a:ext cx="2533650" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6371931A-D8C5-4474-9115-6B1D04307DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="39414450"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C357EA9-FE34-4930-AF2E-817F9BDBBCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="39604950"/>
+          <a:ext cx="847725" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217656</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>183314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>112929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C097870-591B-4078-8905-D940878CA4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827256" y="7231814"/>
+          <a:ext cx="10707519" cy="5454115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FED2F-72DD-4351-9D46-AB1869A58D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="10534650"/>
+          <a:ext cx="1704975" cy="22498050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109682</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>44688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32471</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31D724B-D183-4FB7-9133-0DC913C13698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719282" y="32620188"/>
+          <a:ext cx="7104639" cy="1879362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1462971D-8CE3-4EFF-9D53-EC698B063624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="31413450"/>
+          <a:ext cx="2428875" cy="7324725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9064D748-6E1A-4B2E-B26E-1373F2537E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2628900" y="11753850"/>
+          <a:ext cx="1181100" cy="43976925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE10268-1803-46D4-AB7D-CC7C3CB8D332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="33147000"/>
+          <a:ext cx="238125" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>199692</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8394</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45669676-526B-4F21-956E-72905CFF083B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809292" y="1469998"/>
+          <a:ext cx="11257752" cy="5460291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116068</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>80786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>208787</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64672EA0-3E93-4C7D-8A7B-8DAC6A8D4798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="725668" y="73413761"/>
+          <a:ext cx="7274569" cy="2205214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA60ED47-CA67-49E6-9E62-7073CE7BCFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="38852475"/>
+          <a:ext cx="1162050" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09580E1-C867-4084-A484-E10199399E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="52787550"/>
+          <a:ext cx="9525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC35A1F-5DCE-4F61-B800-D928898CA630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="52358925"/>
+          <a:ext cx="1533525" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99FE902-EBA0-407C-87DB-6AE9E8FF52F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="990600" y="72351900"/>
+          <a:ext cx="990600" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7BF447-34DD-471B-9EC9-79B071EE8932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2609850" y="75342750"/>
+          <a:ext cx="6962775" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F6D0C3-3058-26CB-0A57-2C63C38EDC09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="32556450"/>
+          <a:ext cx="238125" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3645D66-3EE9-46DA-FCE1-D9515E58E2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="1524000"/>
+          <a:ext cx="2143125" cy="70208775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12460512-0EA8-C4F7-05AC-C8240DC2BA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="66817875"/>
+          <a:ext cx="3743325" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7595D23-CFB3-6F9B-FC41-25223824BE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="69103875"/>
+          <a:ext cx="3571875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F8E12C-8964-055A-6195-DA7F4BC6DEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="65512950"/>
+          <a:ext cx="3295650" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36758</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>85400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4FE40B-9735-F0F9-E89A-A6137B249B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="76914375"/>
+          <a:ext cx="10733333" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294208</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>84906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1769ED8-FA7B-4DC0-3000-84DECF509C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="97345500"/>
+          <a:ext cx="8533333" cy="6552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Arrow: Down 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C63FF-2DCC-F2E0-673D-13970E380F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="96497775"/>
+          <a:ext cx="314325" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93901</xdr:colOff>
+      <xdr:row>560</xdr:row>
+      <xdr:rowOff>47349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F278E117-CF7C-0F1B-451A-5F469875A75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="104508300"/>
+          <a:ext cx="10790476" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF42AF8-E1C7-761D-D3FB-0FA06AAE7C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="33699450"/>
+          <a:ext cx="95250" cy="60455175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6293,7 +8192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C04CC-92D0-488C-9229-3AB40D471F2E}">
   <dimension ref="A2:Q250"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
@@ -7504,7 +9403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44F453-1BC1-4445-8BEC-9989BC9F1192}">
   <dimension ref="A2:Q281"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -8949,8 +10848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042459B9-736C-48AC-8424-83D20A2835D6}">
   <dimension ref="A2:Q367"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G241" sqref="G241"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9926,7 +11825,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
@@ -11136,8 +13035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D978ADEF-8F08-4857-950C-850F868F0C79}">
   <dimension ref="A2:Q362"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I366" sqref="I366"/>
+    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11983,7 +13882,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
@@ -13546,8 +15445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868C6FB3-96D8-46DE-9B46-7E0514AA611D}">
   <dimension ref="A2:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J277" sqref="E277:J277"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14433,7 +16332,7 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
@@ -16467,4 +18366,4968 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A47FD1-2398-41DC-B3D8-FFDCCE4A7A79}">
+  <dimension ref="A2:Q548"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A557" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N572" sqref="N572"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="G80" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="G81" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="G83" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="G84" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="G85" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="F86" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="G87" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="F89" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="F90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14"/>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="14"/>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14"/>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
+      <c r="K173" s="14"/>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="14"/>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="14"/>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14"/>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="10"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="C212" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="6"/>
+      <c r="L213" s="14"/>
+      <c r="M213" s="14"/>
+      <c r="N213" s="14"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="14"/>
+      <c r="Q213" s="14"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="6"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="14"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G215" s="14"/>
+      <c r="H215" s="6"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="14"/>
+      <c r="N215" s="14"/>
+      <c r="O215" s="14"/>
+      <c r="P215" s="14"/>
+      <c r="Q215" s="14"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" s="6"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="14"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H217" s="6"/>
+      <c r="L217" s="14"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G218" s="14"/>
+      <c r="H218" s="6"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="14"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H219" s="6"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="14"/>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H220" s="6"/>
+      <c r="L220" s="14"/>
+      <c r="M220" s="14"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+      <c r="P220" s="14"/>
+      <c r="Q220" s="14"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H221" s="6"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="14"/>
+      <c r="N221" s="14"/>
+      <c r="O221" s="14"/>
+      <c r="P221" s="14"/>
+      <c r="Q221" s="14"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" t="s">
+        <v>171</v>
+      </c>
+      <c r="G222" s="19"/>
+      <c r="H222" s="6"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="14"/>
+      <c r="Q222" s="14"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="G223" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H223" s="6"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="14"/>
+      <c r="N223" s="14"/>
+      <c r="O223" s="14"/>
+      <c r="P223" s="14"/>
+      <c r="Q223" s="14"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="6"/>
+      <c r="I224" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" t="s">
+        <v>19</v>
+      </c>
+      <c r="L224" s="14"/>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="6"/>
+      <c r="L225" s="14"/>
+      <c r="M225" s="14"/>
+      <c r="N225" s="14"/>
+      <c r="O225" s="14"/>
+      <c r="P225" s="14"/>
+      <c r="Q225" s="14"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G226" s="14"/>
+      <c r="H226" s="6"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G227" s="14"/>
+      <c r="H227" s="6"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="14"/>
+      <c r="N227" s="14"/>
+      <c r="O227" s="14"/>
+      <c r="P227" s="14"/>
+      <c r="Q227" s="14"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H228" s="6"/>
+      <c r="L228" s="14"/>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
+      <c r="P228" s="14"/>
+      <c r="Q228" s="14"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="6"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="8"/>
+      <c r="G230" s="8"/>
+      <c r="H230" s="10"/>
+      <c r="I230" t="s">
+        <v>8</v>
+      </c>
+      <c r="J230" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L231" s="14"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>21</v>
+      </c>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="L234" s="14"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="15"/>
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B237" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="13"/>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B238" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="13"/>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B239" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="13"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="6"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="6"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="6"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="10"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="4"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="6"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="5"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="6"/>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="6"/>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="6"/>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="6"/>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="6"/>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="6"/>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="5"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="6"/>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B284" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="6"/>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B285" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="6"/>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B286" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="6"/>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="6"/>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="6"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B289" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="6"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="6"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="6"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B292" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="6"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="6"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B294" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="6"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B295" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="6"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="6"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="6"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="5"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="6"/>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B299" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C299" s="19"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="6"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C300" s="19"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="6"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C301" s="19"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="6"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" s="19"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="6"/>
+      <c r="J302" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C303" s="19"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="6"/>
+      <c r="J303" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C304" s="19"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="6"/>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B305" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305" s="19"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="6"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B306" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C306" s="19"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="6"/>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B307" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C307" s="19"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="6"/>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B308" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C308" s="19"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="6"/>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B309" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C309" s="19"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="6"/>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B310" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C310" s="19"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="6"/>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B311" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C311" s="19"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="6"/>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B312" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C312" s="19"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="6"/>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B313" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C313" s="19"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="6"/>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B314" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" s="19"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="6"/>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B315" s="18"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="6"/>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B316" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C316" s="19"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="6"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B317" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C317" s="19"/>
+      <c r="D317" s="19"/>
+      <c r="E317" s="19"/>
+      <c r="F317" s="19"/>
+      <c r="G317" s="19"/>
+      <c r="H317" s="19"/>
+      <c r="I317" s="6"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B318" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
+      <c r="E318" s="19"/>
+      <c r="F318" s="19"/>
+      <c r="G318" s="19"/>
+      <c r="H318" s="19"/>
+      <c r="I318" s="6"/>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B319" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19"/>
+      <c r="E319" s="19"/>
+      <c r="F319" s="19"/>
+      <c r="G319" s="19"/>
+      <c r="H319" s="19"/>
+      <c r="I319" s="6"/>
+      <c r="J319" t="s">
+        <v>8</v>
+      </c>
+      <c r="K319" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B320" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C320" s="19"/>
+      <c r="D320" s="19"/>
+      <c r="E320" s="19"/>
+      <c r="F320" s="19"/>
+      <c r="G320" s="19"/>
+      <c r="H320" s="19"/>
+      <c r="I320" s="6"/>
+      <c r="K320" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B321" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
+      <c r="E321" s="19"/>
+      <c r="F321" s="19"/>
+      <c r="G321" s="19"/>
+      <c r="H321" s="19"/>
+      <c r="I321" s="6"/>
+      <c r="J321" t="s">
+        <v>8</v>
+      </c>
+      <c r="K321" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B322" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C322" s="19"/>
+      <c r="D322" s="19"/>
+      <c r="E322" s="19"/>
+      <c r="F322" s="19"/>
+      <c r="G322" s="19"/>
+      <c r="H322" s="19"/>
+      <c r="I322" s="6"/>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B323" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C323" s="19"/>
+      <c r="D323" s="19"/>
+      <c r="E323" s="19"/>
+      <c r="F323" s="19"/>
+      <c r="G323" s="19"/>
+      <c r="H323" s="19"/>
+      <c r="I323" s="6"/>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B324" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="19"/>
+      <c r="G324" s="19"/>
+      <c r="H324" s="19"/>
+      <c r="I324" s="6"/>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B325" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
+      <c r="E325" s="19"/>
+      <c r="F325" s="19"/>
+      <c r="G325" s="19"/>
+      <c r="H325" s="19"/>
+      <c r="I325" s="6"/>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B326" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C326" s="19"/>
+      <c r="D326" s="19"/>
+      <c r="E326" s="19"/>
+      <c r="F326" s="19"/>
+      <c r="G326" s="19"/>
+      <c r="H326" s="19"/>
+      <c r="I326" s="6"/>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B327" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="19"/>
+      <c r="G327" s="19"/>
+      <c r="H327" s="19"/>
+      <c r="I327" s="6"/>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B328" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="19"/>
+      <c r="G328" s="19"/>
+      <c r="H328" s="19"/>
+      <c r="I328" s="6"/>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B329" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C329" s="19"/>
+      <c r="D329" s="19"/>
+      <c r="E329" s="19"/>
+      <c r="F329" s="19"/>
+      <c r="G329" s="19"/>
+      <c r="H329" s="19"/>
+      <c r="I329" s="6"/>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B330" s="18"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="19"/>
+      <c r="E330" s="19"/>
+      <c r="F330" s="19"/>
+      <c r="G330" s="19"/>
+      <c r="H330" s="19"/>
+      <c r="I330" s="6"/>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B331" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C331" s="19"/>
+      <c r="D331" s="19"/>
+      <c r="E331" s="19"/>
+      <c r="F331" s="19"/>
+      <c r="G331" s="19"/>
+      <c r="H331" s="15"/>
+      <c r="I331" s="13"/>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B332" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C332" s="19"/>
+      <c r="D332" s="19"/>
+      <c r="E332" s="19"/>
+      <c r="F332" s="19"/>
+      <c r="G332" s="19"/>
+      <c r="H332" s="15"/>
+      <c r="I332" s="13"/>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B333" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="19"/>
+      <c r="H333" s="15"/>
+      <c r="I333" s="13"/>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B334" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
+      <c r="E334" s="19"/>
+      <c r="F334" s="19"/>
+      <c r="G334" s="19"/>
+      <c r="H334" s="15"/>
+      <c r="I334" s="13"/>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B335" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C335" s="19"/>
+      <c r="D335" s="19"/>
+      <c r="E335" s="19"/>
+      <c r="F335" s="19"/>
+      <c r="G335" s="19"/>
+      <c r="H335" s="15"/>
+      <c r="I335" s="13"/>
+      <c r="J335" t="s">
+        <v>8</v>
+      </c>
+      <c r="K335" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B336" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="19"/>
+      <c r="G336" s="19"/>
+      <c r="H336" s="15"/>
+      <c r="I336" s="13"/>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B337" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="19"/>
+      <c r="G337" s="19"/>
+      <c r="H337" s="15"/>
+      <c r="I337" s="13"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B338" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C338" s="19"/>
+      <c r="D338" s="19"/>
+      <c r="E338" s="19"/>
+      <c r="F338" s="19"/>
+      <c r="G338" s="19"/>
+      <c r="H338" s="15"/>
+      <c r="I338" s="13"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B339" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C339" s="19"/>
+      <c r="D339" s="19"/>
+      <c r="E339" s="19"/>
+      <c r="F339" s="19"/>
+      <c r="G339" s="19"/>
+      <c r="H339" s="15"/>
+      <c r="I339" s="13"/>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B340" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C340" s="19"/>
+      <c r="D340" s="19"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="19"/>
+      <c r="G340" s="19"/>
+      <c r="H340" s="15"/>
+      <c r="I340" s="13"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B341" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C341" s="19"/>
+      <c r="D341" s="19"/>
+      <c r="E341" s="19"/>
+      <c r="F341" s="19"/>
+      <c r="G341" s="19"/>
+      <c r="H341" s="15"/>
+      <c r="I341" s="13"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B342" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C342" s="19"/>
+      <c r="D342" s="19"/>
+      <c r="E342" s="19"/>
+      <c r="F342" s="19"/>
+      <c r="G342" s="19"/>
+      <c r="H342" s="15"/>
+      <c r="I342" s="13"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B343" s="18"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="19"/>
+      <c r="E343" s="19"/>
+      <c r="F343" s="19"/>
+      <c r="G343" s="19"/>
+      <c r="H343" s="15"/>
+      <c r="I343" s="13"/>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B344" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C344" s="19"/>
+      <c r="D344" s="19"/>
+      <c r="E344" s="15"/>
+      <c r="F344" s="15"/>
+      <c r="G344" s="15"/>
+      <c r="H344" s="15"/>
+      <c r="I344" s="13"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B345" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C345" s="19"/>
+      <c r="D345" s="19"/>
+      <c r="E345" s="15"/>
+      <c r="F345" s="15"/>
+      <c r="G345" s="15"/>
+      <c r="H345" s="15"/>
+      <c r="I345" s="13"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B346" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C346" s="19"/>
+      <c r="D346" s="19"/>
+      <c r="E346" s="15"/>
+      <c r="F346" s="15"/>
+      <c r="G346" s="15"/>
+      <c r="H346" s="15"/>
+      <c r="I346" s="13"/>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B347" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C347" s="19"/>
+      <c r="D347" s="19"/>
+      <c r="E347" s="15"/>
+      <c r="F347" s="15"/>
+      <c r="G347" s="15"/>
+      <c r="H347" s="15"/>
+      <c r="I347" s="13"/>
+      <c r="J347" t="s">
+        <v>8</v>
+      </c>
+      <c r="K347" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B348" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C348" s="19"/>
+      <c r="D348" s="19"/>
+      <c r="E348" s="15"/>
+      <c r="F348" s="15"/>
+      <c r="G348" s="15"/>
+      <c r="H348" s="15"/>
+      <c r="I348" s="13"/>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B349" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C349" s="15"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="15"/>
+      <c r="F349" s="15"/>
+      <c r="G349" s="15"/>
+      <c r="H349" s="15"/>
+      <c r="I349" s="13"/>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B350" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C350" s="19"/>
+      <c r="D350" s="19"/>
+      <c r="E350" s="15"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="15"/>
+      <c r="H350" s="15"/>
+      <c r="I350" s="13"/>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B351" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C351" s="19"/>
+      <c r="D351" s="19"/>
+      <c r="E351" s="15"/>
+      <c r="F351" s="15"/>
+      <c r="G351" s="15"/>
+      <c r="H351" s="15"/>
+      <c r="I351" s="13"/>
+      <c r="J351" t="s">
+        <v>8</v>
+      </c>
+      <c r="K351" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B352" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C352" s="19"/>
+      <c r="D352" s="19"/>
+      <c r="E352" s="15"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="15"/>
+      <c r="H352" s="15"/>
+      <c r="I352" s="13"/>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B353" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C353" s="19"/>
+      <c r="D353" s="19"/>
+      <c r="E353" s="15"/>
+      <c r="F353" s="15"/>
+      <c r="G353" s="15"/>
+      <c r="H353" s="15"/>
+      <c r="I353" s="13"/>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B354" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C354" s="19"/>
+      <c r="D354" s="19"/>
+      <c r="E354" s="15"/>
+      <c r="F354" s="15"/>
+      <c r="G354" s="15"/>
+      <c r="H354" s="15"/>
+      <c r="I354" s="13"/>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B355" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C355" s="19"/>
+      <c r="D355" s="19"/>
+      <c r="E355" s="15"/>
+      <c r="F355" s="15"/>
+      <c r="G355" s="15"/>
+      <c r="H355" s="15"/>
+      <c r="I355" s="13"/>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B356" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C356" s="19"/>
+      <c r="D356" s="19"/>
+      <c r="E356" s="15"/>
+      <c r="F356" s="15"/>
+      <c r="G356" s="15"/>
+      <c r="H356" s="15"/>
+      <c r="I356" s="13"/>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B357" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C357" s="19"/>
+      <c r="D357" s="19"/>
+      <c r="E357" s="15"/>
+      <c r="F357" s="15"/>
+      <c r="G357" s="15"/>
+      <c r="H357" s="15"/>
+      <c r="I357" s="13"/>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B358" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C358" s="19"/>
+      <c r="D358" s="19"/>
+      <c r="E358" s="15"/>
+      <c r="F358" s="15"/>
+      <c r="G358" s="15"/>
+      <c r="H358" s="15"/>
+      <c r="I358" s="13"/>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B359" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C359" s="19"/>
+      <c r="D359" s="19"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="15"/>
+      <c r="H359" s="15"/>
+      <c r="I359" s="13"/>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B360" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C360" s="19"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="15"/>
+      <c r="H360" s="15"/>
+      <c r="I360" s="13"/>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B361" s="18"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="19"/>
+      <c r="E361" s="15"/>
+      <c r="F361" s="15"/>
+      <c r="G361" s="15"/>
+      <c r="H361" s="15"/>
+      <c r="I361" s="13"/>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B362" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C362" s="15"/>
+      <c r="D362" s="15"/>
+      <c r="E362" s="15"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="15"/>
+      <c r="H362" s="15"/>
+      <c r="I362" s="13"/>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B363" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C363" s="15"/>
+      <c r="D363" s="15"/>
+      <c r="E363" s="15"/>
+      <c r="F363" s="15"/>
+      <c r="G363" s="15"/>
+      <c r="H363" s="15"/>
+      <c r="I363" s="13"/>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B364" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C364" s="15"/>
+      <c r="D364" s="15"/>
+      <c r="E364" s="15"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="15"/>
+      <c r="H364" s="15"/>
+      <c r="I364" s="13"/>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B365" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C365" s="15"/>
+      <c r="D365" s="15"/>
+      <c r="E365" s="15"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="15"/>
+      <c r="H365" s="15"/>
+      <c r="I365" s="13"/>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B366" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C366" s="15"/>
+      <c r="D366" s="15"/>
+      <c r="E366" s="15"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="15"/>
+      <c r="H366" s="15"/>
+      <c r="I366" s="13"/>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B367" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C367" s="15"/>
+      <c r="D367" s="15"/>
+      <c r="E367" s="15"/>
+      <c r="F367" s="15"/>
+      <c r="G367" s="15"/>
+      <c r="H367" s="15"/>
+      <c r="I367" s="13"/>
+      <c r="J367" t="s">
+        <v>8</v>
+      </c>
+      <c r="K367" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B368" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C368" s="15"/>
+      <c r="D368" s="15"/>
+      <c r="E368" s="15"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="15"/>
+      <c r="H368" s="15"/>
+      <c r="I368" s="13"/>
+      <c r="J368" t="s">
+        <v>8</v>
+      </c>
+      <c r="K368" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B369" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C369" s="15"/>
+      <c r="D369" s="15"/>
+      <c r="E369" s="15"/>
+      <c r="F369" s="15"/>
+      <c r="G369" s="15"/>
+      <c r="H369" s="15"/>
+      <c r="I369" s="13"/>
+      <c r="J369" t="s">
+        <v>8</v>
+      </c>
+      <c r="K369" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B370" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C370" s="15"/>
+      <c r="D370" s="15"/>
+      <c r="E370" s="15"/>
+      <c r="F370" s="15"/>
+      <c r="G370" s="15"/>
+      <c r="H370" s="15"/>
+      <c r="I370" s="13"/>
+      <c r="K370" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B371" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C371" s="15"/>
+      <c r="D371" s="15"/>
+      <c r="E371" s="15"/>
+      <c r="F371" s="15"/>
+      <c r="G371" s="15"/>
+      <c r="H371" s="15"/>
+      <c r="I371" s="13"/>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B372" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C372" s="15"/>
+      <c r="D372" s="15"/>
+      <c r="E372" s="15"/>
+      <c r="F372" s="15"/>
+      <c r="G372" s="15"/>
+      <c r="H372" s="15"/>
+      <c r="I372" s="13"/>
+    </row>
+    <row r="373" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+      <c r="F373" s="14"/>
+      <c r="G373" s="14"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="6"/>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B374" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="14"/>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="6"/>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B375" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="6"/>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B376" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="6"/>
+    </row>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B377" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+      <c r="F377" s="14"/>
+      <c r="G377" s="14"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="6"/>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B378" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="14"/>
+      <c r="I378" s="6"/>
+    </row>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B379" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="6"/>
+    </row>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B380" s="12"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="14"/>
+      <c r="F380" s="14"/>
+      <c r="G380" s="14"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="6"/>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B381" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="14"/>
+      <c r="F381" s="14"/>
+      <c r="G381" s="14"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="6"/>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B382" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
+      <c r="H382" s="14"/>
+      <c r="I382" s="6"/>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B383" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="14"/>
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
+      <c r="H383" s="14"/>
+      <c r="I383" s="6"/>
+    </row>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B384" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14"/>
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="6"/>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B385" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="6"/>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B386" s="7"/>
+      <c r="C386" s="8"/>
+      <c r="D386" s="8"/>
+      <c r="E386" s="8"/>
+      <c r="F386" s="8"/>
+      <c r="G386" s="8"/>
+      <c r="H386" s="8"/>
+      <c r="I386" s="10"/>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P400" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B421" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="3"/>
+      <c r="H421" s="3"/>
+      <c r="I421" s="3"/>
+      <c r="J421" s="3"/>
+      <c r="K421" s="3"/>
+      <c r="L421" s="4"/>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B422" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="14"/>
+      <c r="F422" s="14"/>
+      <c r="G422" s="14"/>
+      <c r="H422" s="14"/>
+      <c r="I422" s="14"/>
+      <c r="J422" s="14"/>
+      <c r="K422" s="14"/>
+      <c r="L422" s="6"/>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B423" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+      <c r="F423" s="14"/>
+      <c r="G423" s="14"/>
+      <c r="H423" s="14"/>
+      <c r="I423" s="14"/>
+      <c r="J423" s="14"/>
+      <c r="K423" s="14"/>
+      <c r="L423" s="6"/>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B424" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+      <c r="F424" s="14"/>
+      <c r="G424" s="14"/>
+      <c r="H424" s="14"/>
+      <c r="I424" s="14"/>
+      <c r="J424" s="14"/>
+      <c r="K424" s="14"/>
+      <c r="L424" s="6"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B425" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C425" s="14"/>
+      <c r="D425" s="14"/>
+      <c r="E425" s="14"/>
+      <c r="F425" s="14"/>
+      <c r="G425" s="14"/>
+      <c r="H425" s="14"/>
+      <c r="I425" s="14"/>
+      <c r="J425" s="14"/>
+      <c r="K425" s="14"/>
+      <c r="L425" s="6"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B426" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14"/>
+      <c r="F426" s="14"/>
+      <c r="G426" s="14"/>
+      <c r="H426" s="14"/>
+      <c r="I426" s="14"/>
+      <c r="J426" s="14"/>
+      <c r="K426" s="14"/>
+      <c r="L426" s="6"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B427" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="14"/>
+      <c r="F427" s="14"/>
+      <c r="G427" s="14"/>
+      <c r="H427" s="14"/>
+      <c r="I427" s="14"/>
+      <c r="J427" s="14"/>
+      <c r="K427" s="14"/>
+      <c r="L427" s="6"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B428" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="14"/>
+      <c r="F428" s="14"/>
+      <c r="G428" s="14"/>
+      <c r="H428" s="14"/>
+      <c r="I428" s="14"/>
+      <c r="J428" s="14"/>
+      <c r="K428" s="14"/>
+      <c r="L428" s="6"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B429" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="14"/>
+      <c r="F429" s="14"/>
+      <c r="G429" s="14"/>
+      <c r="H429" s="14"/>
+      <c r="I429" s="14"/>
+      <c r="J429" s="14"/>
+      <c r="K429" s="14"/>
+      <c r="L429" s="6"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B430" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="14"/>
+      <c r="F430" s="14"/>
+      <c r="G430" s="14"/>
+      <c r="H430" s="14"/>
+      <c r="I430" s="14"/>
+      <c r="J430" s="14"/>
+      <c r="K430" s="14"/>
+      <c r="L430" s="6"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B431" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
+      <c r="F431" s="14"/>
+      <c r="G431" s="14"/>
+      <c r="H431" s="14"/>
+      <c r="I431" s="14"/>
+      <c r="J431" s="14"/>
+      <c r="K431" s="14"/>
+      <c r="L431" s="6"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B432" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
+      <c r="H432" s="14"/>
+      <c r="I432" s="14"/>
+      <c r="J432" s="14"/>
+      <c r="K432" s="14"/>
+      <c r="L432" s="6"/>
+    </row>
+    <row r="433" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B433" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
+      <c r="H433" s="14"/>
+      <c r="I433" s="14"/>
+      <c r="J433" s="14"/>
+      <c r="K433" s="14"/>
+      <c r="L433" s="6"/>
+    </row>
+    <row r="434" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B434" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
+      <c r="H434" s="14"/>
+      <c r="I434" s="14"/>
+      <c r="J434" s="14"/>
+      <c r="K434" s="14"/>
+      <c r="L434" s="6"/>
+    </row>
+    <row r="435" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B435" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="14"/>
+      <c r="J435" s="14"/>
+      <c r="K435" s="14"/>
+      <c r="L435" s="6"/>
+    </row>
+    <row r="436" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B436" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="14"/>
+      <c r="J436" s="14"/>
+      <c r="K436" s="14"/>
+      <c r="L436" s="6"/>
+    </row>
+    <row r="437" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B437" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="14"/>
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
+      <c r="H437" s="14"/>
+      <c r="I437" s="14"/>
+      <c r="J437" s="14"/>
+      <c r="K437" s="14"/>
+      <c r="L437" s="6"/>
+    </row>
+    <row r="438" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B438" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
+      <c r="H438" s="14"/>
+      <c r="I438" s="14"/>
+      <c r="J438" s="14"/>
+      <c r="K438" s="14"/>
+      <c r="L438" s="6"/>
+    </row>
+    <row r="439" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B439" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="14"/>
+      <c r="F439" s="14"/>
+      <c r="G439" s="14"/>
+      <c r="H439" s="14"/>
+      <c r="I439" s="14"/>
+      <c r="J439" s="14"/>
+      <c r="K439" s="14"/>
+      <c r="L439" s="6"/>
+    </row>
+    <row r="440" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B440" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="14"/>
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="14"/>
+      <c r="J440" s="14"/>
+      <c r="K440" s="14"/>
+      <c r="L440" s="6"/>
+    </row>
+    <row r="441" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="14"/>
+      <c r="J441" s="14"/>
+      <c r="K441" s="14"/>
+      <c r="L441" s="6"/>
+    </row>
+    <row r="442" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B442" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
+      <c r="H442" s="14"/>
+      <c r="I442" s="14"/>
+      <c r="J442" s="14"/>
+      <c r="K442" s="14"/>
+      <c r="L442" s="6"/>
+    </row>
+    <row r="443" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B443" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="14"/>
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
+      <c r="H443" s="14"/>
+      <c r="I443" s="14"/>
+      <c r="J443" s="14"/>
+      <c r="K443" s="14"/>
+      <c r="L443" s="6"/>
+    </row>
+    <row r="444" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B444" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="14"/>
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
+      <c r="H444" s="14"/>
+      <c r="I444" s="14"/>
+      <c r="J444" s="14"/>
+      <c r="K444" s="14"/>
+      <c r="L444" s="6"/>
+    </row>
+    <row r="445" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B445" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="14"/>
+      <c r="J445" s="14"/>
+      <c r="K445" s="14"/>
+      <c r="L445" s="6"/>
+    </row>
+    <row r="446" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="14"/>
+      <c r="J446" s="14"/>
+      <c r="K446" s="14"/>
+      <c r="L446" s="6"/>
+    </row>
+    <row r="447" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B447" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="14"/>
+      <c r="J447" s="14"/>
+      <c r="K447" s="14"/>
+      <c r="L447" s="6"/>
+    </row>
+    <row r="448" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B448" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="14"/>
+      <c r="J448" s="14"/>
+      <c r="K448" s="14"/>
+      <c r="L448" s="6"/>
+    </row>
+    <row r="449" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B449" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C449" s="14"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="14"/>
+      <c r="F449" s="14"/>
+      <c r="G449" s="14"/>
+      <c r="H449" s="14"/>
+      <c r="I449" s="14"/>
+      <c r="J449" s="14"/>
+      <c r="K449" s="14"/>
+      <c r="L449" s="6"/>
+    </row>
+    <row r="450" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B450" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
+      <c r="H450" s="14"/>
+      <c r="I450" s="14"/>
+      <c r="J450" s="14"/>
+      <c r="K450" s="14"/>
+      <c r="L450" s="6"/>
+    </row>
+    <row r="451" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B451" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="14"/>
+      <c r="J451" s="14"/>
+      <c r="K451" s="14"/>
+      <c r="L451" s="6"/>
+    </row>
+    <row r="452" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B452" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
+      <c r="H452" s="14"/>
+      <c r="I452" s="14"/>
+      <c r="J452" s="14"/>
+      <c r="K452" s="14"/>
+      <c r="L452" s="6"/>
+    </row>
+    <row r="453" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B453" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
+      <c r="H453" s="14"/>
+      <c r="I453" s="14"/>
+      <c r="J453" s="14"/>
+      <c r="K453" s="14"/>
+      <c r="L453" s="6"/>
+    </row>
+    <row r="454" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B454" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
+      <c r="H454" s="14"/>
+      <c r="I454" s="14"/>
+      <c r="J454" s="14"/>
+      <c r="K454" s="14"/>
+      <c r="L454" s="6"/>
+    </row>
+    <row r="455" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B455" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="14"/>
+      <c r="F455" s="14"/>
+      <c r="G455" s="14"/>
+      <c r="H455" s="14"/>
+      <c r="I455" s="14"/>
+      <c r="J455" s="14"/>
+      <c r="K455" s="14"/>
+      <c r="L455" s="6"/>
+    </row>
+    <row r="456" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B456" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="14"/>
+      <c r="F456" s="14"/>
+      <c r="G456" s="14"/>
+      <c r="H456" s="14"/>
+      <c r="I456" s="14"/>
+      <c r="J456" s="14"/>
+      <c r="K456" s="14"/>
+      <c r="L456" s="6"/>
+    </row>
+    <row r="457" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B457" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="14"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="14"/>
+      <c r="H457" s="14"/>
+      <c r="I457" s="14"/>
+      <c r="J457" s="14"/>
+      <c r="K457" s="14"/>
+      <c r="L457" s="6"/>
+    </row>
+    <row r="458" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B458" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
+      <c r="H458" s="14"/>
+      <c r="I458" s="14"/>
+      <c r="J458" s="14"/>
+      <c r="K458" s="14"/>
+      <c r="L458" s="6"/>
+    </row>
+    <row r="459" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B459" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
+      <c r="H459" s="14"/>
+      <c r="I459" s="14"/>
+      <c r="J459" s="14"/>
+      <c r="K459" s="14"/>
+      <c r="L459" s="6"/>
+    </row>
+    <row r="460" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B460" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="14"/>
+      <c r="F460" s="14"/>
+      <c r="G460" s="14"/>
+      <c r="H460" s="14"/>
+      <c r="I460" s="14"/>
+      <c r="J460" s="14"/>
+      <c r="K460" s="14"/>
+      <c r="L460" s="6"/>
+    </row>
+    <row r="461" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B461" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+      <c r="F461" s="14"/>
+      <c r="G461" s="14"/>
+      <c r="H461" s="14"/>
+      <c r="I461" s="14"/>
+      <c r="J461" s="14"/>
+      <c r="K461" s="14"/>
+      <c r="L461" s="6"/>
+    </row>
+    <row r="462" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B462" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="14"/>
+      <c r="F462" s="14"/>
+      <c r="G462" s="14"/>
+      <c r="H462" s="14"/>
+      <c r="I462" s="14"/>
+      <c r="J462" s="14"/>
+      <c r="K462" s="14"/>
+      <c r="L462" s="6"/>
+    </row>
+    <row r="463" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B463" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="14"/>
+      <c r="J463" s="14"/>
+      <c r="K463" s="14"/>
+      <c r="L463" s="6"/>
+    </row>
+    <row r="464" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B464" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+      <c r="F464" s="14"/>
+      <c r="G464" s="14"/>
+      <c r="H464" s="14"/>
+      <c r="I464" s="14"/>
+      <c r="J464" s="14"/>
+      <c r="K464" s="14"/>
+      <c r="L464" s="6"/>
+    </row>
+    <row r="465" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B465" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
+      <c r="H465" s="14"/>
+      <c r="I465" s="14"/>
+      <c r="J465" s="14"/>
+      <c r="K465" s="14"/>
+      <c r="L465" s="6"/>
+    </row>
+    <row r="466" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B466" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="14"/>
+      <c r="J466" s="14"/>
+      <c r="K466" s="14"/>
+      <c r="L466" s="6"/>
+    </row>
+    <row r="467" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B467" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
+      <c r="H467" s="14"/>
+      <c r="I467" s="14"/>
+      <c r="J467" s="14"/>
+      <c r="K467" s="14"/>
+      <c r="L467" s="6"/>
+    </row>
+    <row r="468" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B468" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="14"/>
+      <c r="F468" s="14"/>
+      <c r="G468" s="14"/>
+      <c r="H468" s="14"/>
+      <c r="I468" s="14"/>
+      <c r="J468" s="14"/>
+      <c r="K468" s="14"/>
+      <c r="L468" s="6"/>
+    </row>
+    <row r="469" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B469" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="14"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="14"/>
+      <c r="H469" s="14"/>
+      <c r="I469" s="14"/>
+      <c r="J469" s="14"/>
+      <c r="K469" s="14"/>
+      <c r="L469" s="6"/>
+    </row>
+    <row r="470" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B470" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="14"/>
+      <c r="F470" s="14"/>
+      <c r="G470" s="14"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="14"/>
+      <c r="J470" s="14"/>
+      <c r="K470" s="14"/>
+      <c r="L470" s="6"/>
+    </row>
+    <row r="471" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B471" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14"/>
+      <c r="E471" s="14"/>
+      <c r="F471" s="14"/>
+      <c r="G471" s="14"/>
+      <c r="H471" s="14"/>
+      <c r="I471" s="14"/>
+      <c r="J471" s="14"/>
+      <c r="K471" s="14"/>
+      <c r="L471" s="6"/>
+    </row>
+    <row r="472" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B472" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14"/>
+      <c r="E472" s="14"/>
+      <c r="F472" s="14"/>
+      <c r="G472" s="14"/>
+      <c r="H472" s="14"/>
+      <c r="I472" s="14"/>
+      <c r="J472" s="14"/>
+      <c r="K472" s="14"/>
+      <c r="L472" s="6"/>
+    </row>
+    <row r="473" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B473" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14"/>
+      <c r="E473" s="14"/>
+      <c r="F473" s="14"/>
+      <c r="G473" s="14"/>
+      <c r="H473" s="14"/>
+      <c r="I473" s="14"/>
+      <c r="J473" s="14"/>
+      <c r="K473" s="14"/>
+      <c r="L473" s="6"/>
+    </row>
+    <row r="474" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B474" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+      <c r="E474" s="14"/>
+      <c r="F474" s="14"/>
+      <c r="G474" s="14"/>
+      <c r="H474" s="14"/>
+      <c r="I474" s="14"/>
+      <c r="J474" s="14"/>
+      <c r="K474" s="14"/>
+      <c r="L474" s="6"/>
+    </row>
+    <row r="475" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B475" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14"/>
+      <c r="E475" s="14"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="14"/>
+      <c r="H475" s="14"/>
+      <c r="I475" s="14"/>
+      <c r="J475" s="14"/>
+      <c r="K475" s="14"/>
+      <c r="L475" s="6"/>
+    </row>
+    <row r="476" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B476" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="14"/>
+      <c r="F476" s="14"/>
+      <c r="G476" s="14"/>
+      <c r="H476" s="14"/>
+      <c r="I476" s="14"/>
+      <c r="J476" s="14"/>
+      <c r="K476" s="14"/>
+      <c r="L476" s="6"/>
+    </row>
+    <row r="477" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B477" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14"/>
+      <c r="E477" s="14"/>
+      <c r="F477" s="14"/>
+      <c r="G477" s="14"/>
+      <c r="H477" s="14"/>
+      <c r="I477" s="14"/>
+      <c r="J477" s="14"/>
+      <c r="K477" s="14"/>
+      <c r="L477" s="6"/>
+    </row>
+    <row r="478" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B478" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C478" s="14"/>
+      <c r="D478" s="14"/>
+      <c r="E478" s="14"/>
+      <c r="F478" s="14"/>
+      <c r="G478" s="14"/>
+      <c r="H478" s="14"/>
+      <c r="I478" s="14"/>
+      <c r="J478" s="14"/>
+      <c r="K478" s="14"/>
+      <c r="L478" s="6"/>
+    </row>
+    <row r="479" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B479" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C479" s="14"/>
+      <c r="D479" s="14"/>
+      <c r="E479" s="14"/>
+      <c r="F479" s="14"/>
+      <c r="G479" s="14"/>
+      <c r="H479" s="14"/>
+      <c r="I479" s="14"/>
+      <c r="J479" s="14"/>
+      <c r="K479" s="14"/>
+      <c r="L479" s="6"/>
+    </row>
+    <row r="480" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B480" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C480" s="14"/>
+      <c r="D480" s="14"/>
+      <c r="E480" s="14"/>
+      <c r="F480" s="14"/>
+      <c r="G480" s="14"/>
+      <c r="H480" s="14"/>
+      <c r="I480" s="14"/>
+      <c r="J480" s="14"/>
+      <c r="K480" s="14"/>
+      <c r="L480" s="6"/>
+    </row>
+    <row r="481" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B481" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C481" s="14"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="14"/>
+      <c r="F481" s="14"/>
+      <c r="G481" s="14"/>
+      <c r="H481" s="14"/>
+      <c r="I481" s="14"/>
+      <c r="J481" s="14"/>
+      <c r="K481" s="14"/>
+      <c r="L481" s="6"/>
+    </row>
+    <row r="482" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B482" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C482" s="14"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="14"/>
+      <c r="F482" s="14"/>
+      <c r="G482" s="14"/>
+      <c r="H482" s="14"/>
+      <c r="I482" s="14"/>
+      <c r="J482" s="14"/>
+      <c r="K482" s="14"/>
+      <c r="L482" s="6"/>
+    </row>
+    <row r="483" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B483" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14"/>
+      <c r="F483" s="14"/>
+      <c r="G483" s="14"/>
+      <c r="H483" s="14"/>
+      <c r="I483" s="14"/>
+      <c r="J483" s="14"/>
+      <c r="K483" s="14"/>
+      <c r="L483" s="6"/>
+    </row>
+    <row r="484" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B484" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C484" s="14"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="14"/>
+      <c r="F484" s="14"/>
+      <c r="G484" s="14"/>
+      <c r="H484" s="14"/>
+      <c r="I484" s="14"/>
+      <c r="J484" s="14"/>
+      <c r="K484" s="14"/>
+      <c r="L484" s="6"/>
+    </row>
+    <row r="485" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B485" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C485" s="14"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="14"/>
+      <c r="F485" s="14"/>
+      <c r="G485" s="14"/>
+      <c r="H485" s="14"/>
+      <c r="I485" s="14"/>
+      <c r="J485" s="14"/>
+      <c r="K485" s="14"/>
+      <c r="L485" s="6"/>
+    </row>
+    <row r="486" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B486" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C486" s="14"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="14"/>
+      <c r="F486" s="14"/>
+      <c r="G486" s="14"/>
+      <c r="H486" s="14"/>
+      <c r="I486" s="14"/>
+      <c r="J486" s="14"/>
+      <c r="K486" s="14"/>
+      <c r="L486" s="6"/>
+    </row>
+    <row r="487" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B487" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C487" s="14"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="14"/>
+      <c r="F487" s="14"/>
+      <c r="G487" s="14"/>
+      <c r="H487" s="14"/>
+      <c r="I487" s="14"/>
+      <c r="J487" s="14"/>
+      <c r="K487" s="14"/>
+      <c r="L487" s="6"/>
+    </row>
+    <row r="488" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B488" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C488" s="14"/>
+      <c r="D488" s="14"/>
+      <c r="E488" s="14"/>
+      <c r="F488" s="14"/>
+      <c r="G488" s="14"/>
+      <c r="H488" s="14"/>
+      <c r="I488" s="14"/>
+      <c r="J488" s="14"/>
+      <c r="K488" s="14"/>
+      <c r="L488" s="6"/>
+    </row>
+    <row r="489" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B489" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C489" s="14"/>
+      <c r="D489" s="14"/>
+      <c r="E489" s="14"/>
+      <c r="F489" s="14"/>
+      <c r="G489" s="14"/>
+      <c r="H489" s="14"/>
+      <c r="I489" s="14"/>
+      <c r="J489" s="14"/>
+      <c r="K489" s="14"/>
+      <c r="L489" s="6"/>
+    </row>
+    <row r="490" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B490" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C490" s="14"/>
+      <c r="D490" s="14"/>
+      <c r="E490" s="14"/>
+      <c r="F490" s="14"/>
+      <c r="G490" s="14"/>
+      <c r="H490" s="14"/>
+      <c r="I490" s="14"/>
+      <c r="J490" s="14"/>
+      <c r="K490" s="14"/>
+      <c r="L490" s="6"/>
+    </row>
+    <row r="491" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B491" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C491" s="14"/>
+      <c r="D491" s="14"/>
+      <c r="E491" s="14"/>
+      <c r="F491" s="14"/>
+      <c r="G491" s="14"/>
+      <c r="H491" s="14"/>
+      <c r="I491" s="14"/>
+      <c r="J491" s="14"/>
+      <c r="K491" s="14"/>
+      <c r="L491" s="6"/>
+    </row>
+    <row r="492" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B492" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C492" s="14"/>
+      <c r="D492" s="14"/>
+      <c r="E492" s="14"/>
+      <c r="F492" s="14"/>
+      <c r="G492" s="14"/>
+      <c r="H492" s="14"/>
+      <c r="I492" s="14"/>
+      <c r="J492" s="14"/>
+      <c r="K492" s="14"/>
+      <c r="L492" s="6"/>
+    </row>
+    <row r="493" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B493" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C493" s="14"/>
+      <c r="D493" s="14"/>
+      <c r="E493" s="14"/>
+      <c r="F493" s="14"/>
+      <c r="G493" s="14"/>
+      <c r="H493" s="14"/>
+      <c r="I493" s="14"/>
+      <c r="J493" s="14"/>
+      <c r="K493" s="14"/>
+      <c r="L493" s="6"/>
+    </row>
+    <row r="494" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B494" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C494" s="14"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="14"/>
+      <c r="F494" s="14"/>
+      <c r="G494" s="14"/>
+      <c r="H494" s="14"/>
+      <c r="I494" s="14"/>
+      <c r="J494" s="14"/>
+      <c r="K494" s="14"/>
+      <c r="L494" s="6"/>
+    </row>
+    <row r="495" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B495" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C495" s="14"/>
+      <c r="D495" s="14"/>
+      <c r="E495" s="14"/>
+      <c r="F495" s="14"/>
+      <c r="G495" s="14"/>
+      <c r="H495" s="14"/>
+      <c r="I495" s="14"/>
+      <c r="J495" s="14"/>
+      <c r="K495" s="14"/>
+      <c r="L495" s="6"/>
+    </row>
+    <row r="496" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B496" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C496" s="14"/>
+      <c r="D496" s="14"/>
+      <c r="E496" s="14"/>
+      <c r="F496" s="14"/>
+      <c r="G496" s="14"/>
+      <c r="H496" s="14"/>
+      <c r="I496" s="14"/>
+      <c r="J496" s="14"/>
+      <c r="K496" s="14"/>
+      <c r="L496" s="6"/>
+    </row>
+    <row r="497" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B497" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C497" s="14"/>
+      <c r="D497" s="14"/>
+      <c r="E497" s="14"/>
+      <c r="F497" s="14"/>
+      <c r="G497" s="14"/>
+      <c r="H497" s="14"/>
+      <c r="I497" s="14"/>
+      <c r="J497" s="14"/>
+      <c r="K497" s="14"/>
+      <c r="L497" s="6"/>
+    </row>
+    <row r="498" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B498" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C498" s="14"/>
+      <c r="D498" s="14"/>
+      <c r="E498" s="14"/>
+      <c r="F498" s="14"/>
+      <c r="G498" s="14"/>
+      <c r="H498" s="14"/>
+      <c r="I498" s="14"/>
+      <c r="J498" s="14"/>
+      <c r="K498" s="14"/>
+      <c r="L498" s="6"/>
+    </row>
+    <row r="499" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B499" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C499" s="14"/>
+      <c r="D499" s="14"/>
+      <c r="E499" s="14"/>
+      <c r="F499" s="14"/>
+      <c r="G499" s="14"/>
+      <c r="H499" s="14"/>
+      <c r="I499" s="14"/>
+      <c r="J499" s="14"/>
+      <c r="K499" s="14"/>
+      <c r="L499" s="6"/>
+    </row>
+    <row r="500" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B500" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C500" s="14"/>
+      <c r="D500" s="14"/>
+      <c r="E500" s="14"/>
+      <c r="F500" s="14"/>
+      <c r="G500" s="14"/>
+      <c r="H500" s="14"/>
+      <c r="I500" s="14"/>
+      <c r="J500" s="14"/>
+      <c r="K500" s="14"/>
+      <c r="L500" s="6"/>
+    </row>
+    <row r="501" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B501" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C501" s="14"/>
+      <c r="D501" s="14"/>
+      <c r="E501" s="14"/>
+      <c r="F501" s="14"/>
+      <c r="G501" s="14"/>
+      <c r="H501" s="14"/>
+      <c r="I501" s="14"/>
+      <c r="J501" s="14"/>
+      <c r="K501" s="14"/>
+      <c r="L501" s="6"/>
+    </row>
+    <row r="502" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B502" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C502" s="14"/>
+      <c r="D502" s="14"/>
+      <c r="E502" s="14"/>
+      <c r="F502" s="14"/>
+      <c r="G502" s="14"/>
+      <c r="H502" s="14"/>
+      <c r="I502" s="14"/>
+      <c r="J502" s="14"/>
+      <c r="K502" s="14"/>
+      <c r="L502" s="6"/>
+    </row>
+    <row r="503" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B503" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C503" s="14"/>
+      <c r="D503" s="14"/>
+      <c r="E503" s="14"/>
+      <c r="F503" s="14"/>
+      <c r="G503" s="14"/>
+      <c r="H503" s="14"/>
+      <c r="I503" s="14"/>
+      <c r="J503" s="14"/>
+      <c r="K503" s="14"/>
+      <c r="L503" s="6"/>
+    </row>
+    <row r="504" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B504" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C504" s="14"/>
+      <c r="D504" s="14"/>
+      <c r="E504" s="14"/>
+      <c r="F504" s="14"/>
+      <c r="G504" s="14"/>
+      <c r="H504" s="14"/>
+      <c r="I504" s="14"/>
+      <c r="J504" s="14"/>
+      <c r="K504" s="14"/>
+      <c r="L504" s="6"/>
+    </row>
+    <row r="505" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B505" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C505" s="14"/>
+      <c r="D505" s="14"/>
+      <c r="E505" s="14"/>
+      <c r="F505" s="14"/>
+      <c r="G505" s="14"/>
+      <c r="H505" s="14"/>
+      <c r="I505" s="14"/>
+      <c r="J505" s="14"/>
+      <c r="K505" s="14"/>
+      <c r="L505" s="6"/>
+    </row>
+    <row r="506" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B506" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="8"/>
+      <c r="G506" s="8"/>
+      <c r="H506" s="8"/>
+      <c r="I506" s="8"/>
+      <c r="J506" s="8"/>
+      <c r="K506" s="8"/>
+      <c r="L506" s="10"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.training_grunt/3.gruntjs.xlsx
+++ b/me/2.training_grunt/3.gruntjs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94C021-05EB-4766-81E7-0FF2B612CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACC6BC-E804-46CC-BB82-F161E8593839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plugin Cssmin" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Plugin SASS" sheetId="6" r:id="rId4"/>
     <sheet name="Plugin watch" sheetId="7" r:id="rId5"/>
     <sheet name="Plugin connect" sheetId="8" r:id="rId6"/>
+    <sheet name="Plugin includes" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="436">
   <si>
     <t>Cssmin có tác dụng nén các tập tin css lại</t>
   </si>
@@ -1358,6 +1359,300 @@
   </si>
   <si>
     <t>Không cần Refresh nhưng trình duyệt sẽ tự Refresh</t>
+  </si>
+  <si>
+    <t>URL: https://getbootstrap.com/docs/3.4/</t>
+  </si>
+  <si>
+    <t>Download getbootstrap</t>
+  </si>
+  <si>
+    <t>Copy Bootstrap to production</t>
+  </si>
+  <si>
+    <t>Download jquery.min.js</t>
+  </si>
+  <si>
+    <t>Trong một giao diện html chẳng hạn thì thường nó bao gồm rất nhiều các thành phần khác nhau cho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nên trong quá trình xây dựng giao diện thì nếu như mà để trên cùng 1 tập tin thì sẽ rất khó chỉnh sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu như để trên cùng 1 tập tin thì việc phân chia ra cho các member để xây dựng các thành phần khác </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nhau của giao diện sẽ khó phân chia</t>
+  </si>
+  <si>
+    <t>Một cách khác để tách ra các thành phần khác nhau đó là lưu lại dạng php sau đó dùng các lệnh require</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hay include trong php để kéo các thành phần đó vào để cho các mã lệnh html giảm đi tuy nhiên nó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  không phải là giải pháp hay bởi vì nó là các tập tin js, html, css… chưa liên quan gì đến php</t>
+  </si>
+  <si>
+    <t>Plugin includes giúp tách các tập tin html ra và sau đó sẽ kéo vào tập tin index.html</t>
+  </si>
+  <si>
+    <t>npm install grunt-includes --save-dev</t>
+  </si>
+  <si>
+    <t>        "grunt-contrib-watch": "^1.1.0",</t>
+  </si>
+  <si>
+    <t>        "grunt-includes": "^1.1.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    grunt.loadNpmTasks('grunt-includes');</t>
+  </si>
+  <si>
+    <t>    grunt.registerTask('dev', ['includes', 'connect', 'watch']);</t>
+  </si>
+  <si>
+    <t>includes nên được thực hiện trước rồi mới connect và quan sát sự thay đổi</t>
+  </si>
+  <si>
+    <t>        // INCLUDES</t>
+  </si>
+  <si>
+    <t>        includes: {</t>
+  </si>
+  <si>
+    <t>            files: {</t>
+  </si>
+  <si>
+    <t>                    'development/index.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ], // Source files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dest: 'production/', // Destination directory </t>
+  </si>
+  <si>
+    <t>                cwd: '.',</t>
+  </si>
+  <si>
+    <t>                    silent: true,</t>
+  </si>
+  <si>
+    <t>                    banner: '&lt;!-- I am a banner &lt;% includes.files.dest %&gt; --&gt;'</t>
+  </si>
+  <si>
+    <t>Khai báo các tập tin input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Thư mục hiện hành</t>
+  </si>
+  <si>
+    <t>Phần ghi chú</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>nav.html</t>
+  </si>
+  <si>
+    <t>                    'development/index.html',</t>
+  </si>
+  <si>
+    <t>                    'cssmin',</t>
+  </si>
+  <si>
+    <t>                    'includes'</t>
+  </si>
+  <si>
+    <t>left.html</t>
+  </si>
+  <si>
+    <t>right.html</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Left&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;nav class="navbar navbar-default" role="navigation"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;!-- Brand and toggle get grouped for better mobile display --&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="navbar-header"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;button type="button" class="navbar-toggle" data-toggle="collapse" data-target=".navbar-ex1-collapse"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;span class="sr-only"&gt;Toggle navigation&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;span class="icon-bar"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;a class="navbar-brand" href="#"&gt;Title&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;!-- Collect the nav links, forms, and other content for toggling --&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="collapse navbar-collapse navbar-ex1-collapse"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;ul class="nav navbar-nav"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;li class="active"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;a href="#"&gt;Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;form class="navbar-form navbar-left" role="search"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="form-group"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;input type="text" class="form-control" placeholder="Search" /&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;button type="submit" class="btn btn-default"&gt;Submit&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;ul class="nav navbar-nav navbar-right"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;li class="dropdown"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;a href="#" class="dropdown-toggle" data-toggle="dropdown"&gt;Dropdown &lt;b class="caret"&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;ul class="dropdown-menu"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#"&gt;Action&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#"&gt;Another action&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#"&gt;Something else here&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a href="#"&gt;Separated link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;!-- /.navbar-collapse --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Right&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>        include "./html/nav.html"</t>
+  </si>
+  <si>
+    <t>                include "./html/left.html"</t>
+  </si>
+  <si>
+    <t>                include "./html/right.html"</t>
+  </si>
+  <si>
+    <t>install includes</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung left.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                flatten: true, </t>
+  </si>
+  <si>
+    <t>                    'development/html/*.html'</t>
+  </si>
+  <si>
+    <t>Khi có sự thay đổi của tập tin trong files thì sẽ chạy thêm cả task includes để kéo các tập in vào</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Left 123&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flatten là true thì sẽ lấy index.html trong development đặt trong production thành đường dẫn production/index.html. Là false thì sẽ lấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/index.html -&gt; đặt trong production thành đường dẫn production/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>check new 構成</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1520,6 +1815,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6998,59 +7295,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE10268-1803-46D4-AB7D-CC7C3CB8D332}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="33147000"/>
-          <a:ext cx="238125" cy="3533775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7899,6 +8143,1998 @@
         <a:xfrm>
           <a:off x="1371600" y="33699450"/>
           <a:ext cx="95250" cy="60455175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC80D55-FC79-4D7B-8470-588DEF59842B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="18297525"/>
+          <a:ext cx="28575" cy="26174700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>370289</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC516ED5-E946-4968-BE5F-2C9AFEDB7F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36576000"/>
+          <a:ext cx="9485714" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1426BC-989F-4783-9752-2F1564F60788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4772025" y="15382875"/>
+          <a:ext cx="2495550" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9D8A1E-CAB2-467B-A836-CC20B6213304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="15163800"/>
+          <a:ext cx="2533650" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7903611A-61FC-48A4-B662-C3409D798C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="52749450"/>
+          <a:ext cx="847725" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAE1DC3-D323-4ED4-903D-1DFFA74372E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="52939950"/>
+          <a:ext cx="847725" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153081</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>78539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255074</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>8154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F53E251-B9D6-4E9D-A78E-BC0D75815A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762681" y="32654039"/>
+          <a:ext cx="9827018" cy="5454115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDAF4D4-2470-438D-A2CA-DC898DBF0A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923925" y="36252150"/>
+          <a:ext cx="4981575" cy="34499550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>183530</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>54213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349148</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4663B771-69E4-4AF4-B629-458B4D3ABBEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793130" y="70920213"/>
+          <a:ext cx="6842643" cy="1879362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA731207-BE50-4254-87A9-0F0755D44DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="44557950"/>
+          <a:ext cx="2428875" cy="7515225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A05F4F1-BD43-4E8A-9C61-E0167A9C2EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="37280850"/>
+          <a:ext cx="1143000" cy="59788425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>94917</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>87774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408444</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>63862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3590739-B942-4017-903A-4646A1727514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704517" y="27138774"/>
+          <a:ext cx="11257752" cy="5310088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19116</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>61735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402373</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E5B57-B88C-42E5-B9B9-AC4B336AE9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628716" y="106170235"/>
+          <a:ext cx="8279482" cy="2957689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E453817E-9B3F-4475-8F1D-3CC1CCDEDF9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="52187475"/>
+          <a:ext cx="1162050" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A671DAB-0531-4113-89CE-3A40B9593FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="66122550"/>
+          <a:ext cx="9525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05D32AE-C365-439F-8BED-E3C48E31B6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="65693925"/>
+          <a:ext cx="1533525" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ACF277-928A-421D-9645-6BD2C138FE7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="990600" y="73113900"/>
+          <a:ext cx="990600" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CCB65A-33F1-4A35-B446-F764D84317B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2609850" y="76104750"/>
+          <a:ext cx="6962775" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116BA3DC-5A07-477B-9381-4C3A0D2F52F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="70846950"/>
+          <a:ext cx="295275" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911E7117-2766-4CD1-B9A4-D90966EAAA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="24193500"/>
+          <a:ext cx="2676525" cy="73780650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA899BFA-ACF3-4321-84E0-9D48B1AA7CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="67960875"/>
+          <a:ext cx="3743325" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F310B41-0178-4271-A745-925090246C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="70246875"/>
+          <a:ext cx="3571875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7279C7AB-BFF3-4278-AF20-F64B9ECC73FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="66465450"/>
+          <a:ext cx="3295650" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541583</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>85400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE90E511-AAB4-4A78-91E3-2D1AC5F38113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="76914375"/>
+          <a:ext cx="10733333" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123689</xdr:colOff>
+      <xdr:row>628</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551519</xdr:colOff>
+      <xdr:row>662</xdr:row>
+      <xdr:rowOff>103956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE76120-7C2D-44EE-8AAB-2EE8ECCF6EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733289" y="114519075"/>
+          <a:ext cx="8324055" cy="6552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>627</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Arrow: Down 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876A14FA-A656-48C5-B94A-527469C40A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="114071400"/>
+          <a:ext cx="314325" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>665</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598726</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>47349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F14590A-8780-45A9-9A84-E3A89FC980A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="104508300"/>
+          <a:ext cx="10790476" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91E42B4-B5D3-78C4-FBB6-2DDACA892836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="742951"/>
+          <a:ext cx="11229975" cy="5735404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>80365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF1E90F-46D3-3745-E641-6EF97F960D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771526" y="6705600"/>
+          <a:ext cx="11430000" cy="4042765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199192</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F755C301-F839-AFF5-2E9F-B1C596FF2C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="13087350"/>
+          <a:ext cx="6666667" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218317</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9802B4F-1D73-6848-37C7-E0C8A0A09857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="11239500"/>
+          <a:ext cx="6066667" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Arrow: Down 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0D6672-B4BD-F53E-D114-5895C1D9A1FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="12649200"/>
+          <a:ext cx="123825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>15452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9818E2-5608-8F3E-8706-0F21A6864B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="15354301"/>
+          <a:ext cx="11258549" cy="4473151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361088</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>18800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33472243-0EFF-E959-F7CA-817766B46DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="20497800"/>
+          <a:ext cx="6895238" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Arrow: Down 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D56FEC-6258-C7CB-86AC-D7E17F29B306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="20040600"/>
+          <a:ext cx="171450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB32A4D-BEB7-9198-C077-3139B9589290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="91573350"/>
+          <a:ext cx="5229225" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DD0198-7694-CE2A-B814-A6F9C18A842F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="56007000"/>
+          <a:ext cx="981075" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BFC3E9-68EB-A3A5-2816-A6128CB87E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="45500925"/>
+          <a:ext cx="942975" cy="14973300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEB2067-E5F0-1F7D-D388-06CF0B2349C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="44748450"/>
+          <a:ext cx="1266825" cy="16497300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18372,8 +20608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A47FD1-2398-41DC-B3D8-FFDCCE4A7A79}">
   <dimension ref="A2:Q548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N572" sqref="N572"/>
+    <sheetView topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23330,4 +25566,4682 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9F5114-BBD6-4F27-90F7-BDE922F65DFC}">
+  <dimension ref="A2:Q665"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A652" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q661" sqref="Q661"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="27"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="D206" t="s">
+        <v>27</v>
+      </c>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="I207" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="F208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="G209" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="G210" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="F211" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G211" s="14"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="F215" t="s">
+        <v>79</v>
+      </c>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="G216" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="G217" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="G218" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="F219" t="s">
+        <v>171</v>
+      </c>
+      <c r="G219" s="22"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="G220" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="F221" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G221" s="22"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="6"/>
+      <c r="I222" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="F223" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" s="22"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="F224" s="24"/>
+      <c r="G224" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="7"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="8"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="7"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="10"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>388</v>
+      </c>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>384</v>
+      </c>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="14"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="14"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="14"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B243" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="14"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="14"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="14"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B246" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="14"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B247" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="14"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="14"/>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B249" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="14"/>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="14"/>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B251" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="14"/>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="14"/>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="14"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B254" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="14"/>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="14"/>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="14"/>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="14"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="14"/>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B259" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="14"/>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B260" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="14"/>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B261" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="14"/>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B262" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="14"/>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="14"/>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="14"/>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="14"/>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B266" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
+      <c r="J266" s="14"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="14"/>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="14"/>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B268" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="14"/>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B269" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="14"/>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B270" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="14"/>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B271" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="14"/>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="14"/>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="14"/>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="14"/>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B275" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="14"/>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="14"/>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="14"/>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="14"/>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="14"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="14"/>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B281" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="14"/>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="14"/>
+      <c r="J282" s="14"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="14"/>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="14"/>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B284" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="14"/>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B285" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
+      <c r="J285" s="14"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="14"/>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B286" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="14"/>
+      <c r="J286" s="14"/>
+      <c r="K286" s="6"/>
+      <c r="L286" s="14"/>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B287" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="6"/>
+      <c r="L287" s="14"/>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="14"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="14"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B289" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="14"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="14"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="14"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B292" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+      <c r="K292" s="10"/>
+      <c r="L292" s="14"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>389</v>
+      </c>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C295" s="4"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="7"/>
+      <c r="C296" s="10"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>251</v>
+      </c>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="4"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B300" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14"/>
+      <c r="L300" s="6"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="14"/>
+      <c r="L301" s="6"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B302" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="14"/>
+      <c r="L302" s="6"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B303" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="6"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B304" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="14"/>
+      <c r="L304" s="6"/>
+    </row>
+    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B305" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="14"/>
+      <c r="L305" s="6"/>
+    </row>
+    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B306" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="14"/>
+      <c r="L306" s="6"/>
+    </row>
+    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B307" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="14"/>
+      <c r="L307" s="6"/>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B308" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="14"/>
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B309" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="14"/>
+      <c r="L309" s="6"/>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B310" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="14"/>
+      <c r="L310" s="6"/>
+    </row>
+    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B311" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="14"/>
+      <c r="L311" s="6"/>
+    </row>
+    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B312" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="14"/>
+      <c r="L312" s="6"/>
+    </row>
+    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B313" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="14"/>
+      <c r="L313" s="6"/>
+    </row>
+    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B314" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="14"/>
+      <c r="L314" s="6"/>
+    </row>
+    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B315" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="6"/>
+    </row>
+    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B316" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14"/>
+      <c r="L316" s="6"/>
+    </row>
+    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B317" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="6"/>
+    </row>
+    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B318" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="14"/>
+      <c r="L318" s="6"/>
+    </row>
+    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="6"/>
+    </row>
+    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B320" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="14"/>
+      <c r="L320" s="6"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B321" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
+      <c r="J321" s="14"/>
+      <c r="K321" s="14"/>
+      <c r="L321" s="6"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B322" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="14"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="14"/>
+      <c r="L322" s="6"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B323" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
+      <c r="K323" s="14"/>
+      <c r="L323" s="6"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B324" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
+      <c r="K324" s="14"/>
+      <c r="L324" s="6"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B325" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="14"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
+      <c r="K325" s="14"/>
+      <c r="L325" s="6"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14"/>
+      <c r="H326" s="14"/>
+      <c r="I326" s="14"/>
+      <c r="J326" s="14"/>
+      <c r="K326" s="14"/>
+      <c r="L326" s="6"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B327" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
+      <c r="J327" s="14"/>
+      <c r="K327" s="14"/>
+      <c r="L327" s="6"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B328" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="14"/>
+      <c r="H328" s="14"/>
+      <c r="I328" s="14"/>
+      <c r="J328" s="14"/>
+      <c r="K328" s="14"/>
+      <c r="L328" s="6"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B329" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
+      <c r="J329" s="14"/>
+      <c r="K329" s="14"/>
+      <c r="L329" s="6"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B330" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="14"/>
+      <c r="I330" s="14"/>
+      <c r="J330" s="14"/>
+      <c r="K330" s="14"/>
+      <c r="L330" s="6"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B331" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="14"/>
+      <c r="I331" s="14"/>
+      <c r="J331" s="14"/>
+      <c r="K331" s="14"/>
+      <c r="L331" s="6"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="14"/>
+      <c r="I332" s="14"/>
+      <c r="J332" s="14"/>
+      <c r="K332" s="14"/>
+      <c r="L332" s="6"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B333" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="8"/>
+      <c r="G333" s="8"/>
+      <c r="H333" s="8"/>
+      <c r="I333" s="8"/>
+      <c r="J333" s="8"/>
+      <c r="K333" s="8"/>
+      <c r="L333" s="10"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B356" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="4"/>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B357" s="5"/>
+      <c r="C357" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="14"/>
+      <c r="G357" s="14"/>
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E358" s="14"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
+      <c r="H358" s="6"/>
+      <c r="L358" s="14"/>
+      <c r="M358" s="14"/>
+      <c r="N358" s="14"/>
+      <c r="O358" s="14"/>
+      <c r="P358" s="14"/>
+      <c r="Q358" s="14"/>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
+      <c r="H359" s="6"/>
+      <c r="L359" s="14"/>
+      <c r="M359" s="14"/>
+      <c r="N359" s="14"/>
+      <c r="O359" s="14"/>
+      <c r="P359" s="14"/>
+      <c r="Q359" s="14"/>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="14"/>
+      <c r="F360" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G360" s="14"/>
+      <c r="H360" s="6"/>
+      <c r="L360" s="14"/>
+      <c r="M360" s="14"/>
+      <c r="N360" s="14"/>
+      <c r="O360" s="14"/>
+      <c r="P360" s="14"/>
+      <c r="Q360" s="14"/>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="14"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H361" s="6"/>
+      <c r="L361" s="14"/>
+      <c r="M361" s="14"/>
+      <c r="N361" s="14"/>
+      <c r="O361" s="14"/>
+      <c r="P361" s="14"/>
+      <c r="Q361" s="14"/>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="14"/>
+      <c r="F362" s="14"/>
+      <c r="G362" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H362" s="6"/>
+      <c r="L362" s="14"/>
+      <c r="M362" s="14"/>
+      <c r="N362" s="14"/>
+      <c r="O362" s="14"/>
+      <c r="P362" s="14"/>
+      <c r="Q362" s="14"/>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B363" s="5"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
+      <c r="F363" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G363" s="14"/>
+      <c r="H363" s="6"/>
+      <c r="L363" s="14"/>
+      <c r="M363" s="14"/>
+      <c r="N363" s="14"/>
+      <c r="O363" s="14"/>
+      <c r="P363" s="14"/>
+      <c r="Q363" s="14"/>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B364" s="5"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="H364" s="6"/>
+      <c r="L364" s="14"/>
+      <c r="M364" s="14"/>
+      <c r="N364" s="14"/>
+      <c r="O364" s="14"/>
+      <c r="P364" s="14"/>
+      <c r="Q364" s="14"/>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="14"/>
+      <c r="F365" s="14"/>
+      <c r="G365" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H365" s="6"/>
+      <c r="L365" s="14"/>
+      <c r="M365" s="14"/>
+      <c r="N365" s="14"/>
+      <c r="O365" s="14"/>
+      <c r="P365" s="14"/>
+      <c r="Q365" s="14"/>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="14"/>
+      <c r="F366" s="14"/>
+      <c r="G366" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H366" s="6"/>
+      <c r="L366" s="14"/>
+      <c r="M366" s="14"/>
+      <c r="N366" s="14"/>
+      <c r="O366" s="14"/>
+      <c r="P366" s="14"/>
+      <c r="Q366" s="14"/>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B367" s="5"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="14"/>
+      <c r="F367" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G367" s="14"/>
+      <c r="H367" s="6"/>
+      <c r="L367" s="14"/>
+      <c r="M367" s="14"/>
+      <c r="N367" s="14"/>
+      <c r="O367" s="14"/>
+      <c r="P367" s="14"/>
+      <c r="Q367" s="14"/>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="14"/>
+      <c r="F368" s="14"/>
+      <c r="G368" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H368" s="6"/>
+      <c r="L368" s="14"/>
+      <c r="M368" s="14"/>
+      <c r="N368" s="14"/>
+      <c r="O368" s="14"/>
+      <c r="P368" s="14"/>
+      <c r="Q368" s="14"/>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="14"/>
+      <c r="F369" s="14"/>
+      <c r="G369" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H369" s="6"/>
+      <c r="L369" s="14"/>
+      <c r="M369" s="14"/>
+      <c r="N369" s="14"/>
+      <c r="O369" s="14"/>
+      <c r="P369" s="14"/>
+      <c r="Q369" s="14"/>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="14"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H370" s="6"/>
+      <c r="L370" s="14"/>
+      <c r="M370" s="14"/>
+      <c r="N370" s="14"/>
+      <c r="O370" s="14"/>
+      <c r="P370" s="14"/>
+      <c r="Q370" s="14"/>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="14"/>
+      <c r="F371" t="s">
+        <v>171</v>
+      </c>
+      <c r="G371" s="19"/>
+      <c r="H371" s="6"/>
+      <c r="L371" s="14"/>
+      <c r="M371" s="14"/>
+      <c r="N371" s="14"/>
+      <c r="O371" s="14"/>
+      <c r="P371" s="14"/>
+      <c r="Q371" s="14"/>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="14"/>
+      <c r="G372" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H372" s="6"/>
+      <c r="L372" s="14"/>
+      <c r="M372" s="14"/>
+      <c r="N372" s="14"/>
+      <c r="O372" s="14"/>
+      <c r="P372" s="14"/>
+      <c r="Q372" s="14"/>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+      <c r="F373" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G373" s="19"/>
+      <c r="H373" s="6"/>
+      <c r="L373" s="14"/>
+      <c r="M373" s="14"/>
+      <c r="N373" s="14"/>
+      <c r="O373" s="14"/>
+      <c r="P373" s="14"/>
+      <c r="Q373" s="14"/>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B374" s="5"/>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="6"/>
+      <c r="I374" t="s">
+        <v>8</v>
+      </c>
+      <c r="J374" t="s">
+        <v>19</v>
+      </c>
+      <c r="L374" s="14"/>
+      <c r="M374" s="14"/>
+      <c r="N374" s="14"/>
+      <c r="O374" s="14"/>
+      <c r="P374" s="14"/>
+      <c r="Q374" s="14"/>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B375" s="5"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="6"/>
+      <c r="L375" s="14"/>
+      <c r="M375" s="14"/>
+      <c r="N375" s="14"/>
+      <c r="O375" s="14"/>
+      <c r="P375" s="14"/>
+      <c r="Q375" s="14"/>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B376" s="5"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G376" s="19"/>
+      <c r="H376" s="6"/>
+      <c r="L376" s="14"/>
+      <c r="M376" s="14"/>
+      <c r="N376" s="14"/>
+      <c r="O376" s="14"/>
+      <c r="P376" s="14"/>
+      <c r="Q376" s="14"/>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B377" s="5"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+      <c r="F377" s="24"/>
+      <c r="G377" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H377" s="6"/>
+      <c r="L377" s="14"/>
+      <c r="M377" s="14"/>
+      <c r="N377" s="14"/>
+      <c r="O377" s="14"/>
+      <c r="P377" s="14"/>
+      <c r="Q377" s="14"/>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B378" s="5"/>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="6"/>
+      <c r="L378" s="14"/>
+      <c r="M378" s="14"/>
+      <c r="N378" s="14"/>
+      <c r="O378" s="14"/>
+      <c r="P378" s="14"/>
+      <c r="Q378" s="14"/>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B379" s="7"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F379" s="8"/>
+      <c r="G379" s="8"/>
+      <c r="H379" s="10"/>
+      <c r="I379" t="s">
+        <v>8</v>
+      </c>
+      <c r="J379" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="14"/>
+      <c r="M379" s="14"/>
+      <c r="N379" s="14"/>
+      <c r="O379" s="14"/>
+      <c r="P379" s="14"/>
+      <c r="Q379" s="14"/>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L380" s="14"/>
+      <c r="M380" s="14"/>
+      <c r="N380" s="14"/>
+      <c r="O380" s="14"/>
+      <c r="P380" s="14"/>
+      <c r="Q380" s="14"/>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L381" s="14"/>
+      <c r="M381" s="14"/>
+      <c r="N381" s="14"/>
+      <c r="O381" s="14"/>
+      <c r="P381" s="14"/>
+      <c r="Q381" s="14"/>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>21</v>
+      </c>
+      <c r="L382" s="14"/>
+      <c r="M382" s="14"/>
+      <c r="N382" s="14"/>
+      <c r="O382" s="14"/>
+      <c r="P382" s="14"/>
+      <c r="Q382" s="14"/>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="L383" s="14"/>
+      <c r="M383" s="14"/>
+      <c r="N383" s="14"/>
+      <c r="O383" s="15"/>
+      <c r="P383" s="14"/>
+      <c r="Q383" s="14"/>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B384" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B385" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E385" s="6"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B386" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C386" s="11"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="13"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B387" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="13"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B388" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="13"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B389" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C389" s="8"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="10"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="4"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B406" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="6"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B407" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14"/>
+      <c r="E407" s="6"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B408" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C408" s="14"/>
+      <c r="D408" s="14"/>
+      <c r="E408" s="6"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B409" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14"/>
+      <c r="E409" s="6"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B410" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B411" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B412" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B413" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B414" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B415" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B416" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C417" s="8"/>
+      <c r="D417" s="8"/>
+      <c r="E417" s="10"/>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B420" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+      <c r="I420" s="4"/>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B421" s="5"/>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="14"/>
+      <c r="F421" s="14"/>
+      <c r="G421" s="14"/>
+      <c r="H421" s="14"/>
+      <c r="I421" s="6"/>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B422" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="14"/>
+      <c r="F422" s="14"/>
+      <c r="G422" s="14"/>
+      <c r="H422" s="14"/>
+      <c r="I422" s="6"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B423" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+      <c r="F423" s="14"/>
+      <c r="G423" s="14"/>
+      <c r="H423" s="14"/>
+      <c r="I423" s="6"/>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B424" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+      <c r="F424" s="14"/>
+      <c r="G424" s="14"/>
+      <c r="H424" s="14"/>
+      <c r="I424" s="6"/>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B425" s="5"/>
+      <c r="C425" s="14"/>
+      <c r="D425" s="14"/>
+      <c r="E425" s="14"/>
+      <c r="F425" s="14"/>
+      <c r="G425" s="14"/>
+      <c r="H425" s="14"/>
+      <c r="I425" s="6"/>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B426" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14"/>
+      <c r="F426" s="14"/>
+      <c r="G426" s="14"/>
+      <c r="H426" s="14"/>
+      <c r="I426" s="6"/>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B427" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="14"/>
+      <c r="F427" s="14"/>
+      <c r="G427" s="14"/>
+      <c r="H427" s="14"/>
+      <c r="I427" s="6"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B428" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="14"/>
+      <c r="F428" s="14"/>
+      <c r="G428" s="14"/>
+      <c r="H428" s="14"/>
+      <c r="I428" s="6"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B429" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="14"/>
+      <c r="F429" s="14"/>
+      <c r="G429" s="14"/>
+      <c r="H429" s="14"/>
+      <c r="I429" s="6"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B430" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="14"/>
+      <c r="F430" s="14"/>
+      <c r="G430" s="14"/>
+      <c r="H430" s="14"/>
+      <c r="I430" s="6"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B431" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
+      <c r="F431" s="14"/>
+      <c r="G431" s="14"/>
+      <c r="H431" s="14"/>
+      <c r="I431" s="6"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B432" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
+      <c r="H432" s="14"/>
+      <c r="I432" s="6"/>
+    </row>
+    <row r="433" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B433" s="5"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
+      <c r="H433" s="14"/>
+      <c r="I433" s="6"/>
+    </row>
+    <row r="434" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B434" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
+      <c r="H434" s="14"/>
+      <c r="I434" s="6"/>
+    </row>
+    <row r="435" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B435" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="6"/>
+    </row>
+    <row r="436" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B436" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="6"/>
+    </row>
+    <row r="437" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B437" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="14"/>
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
+      <c r="H437" s="14"/>
+      <c r="I437" s="6"/>
+    </row>
+    <row r="438" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B438" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
+      <c r="H438" s="14"/>
+      <c r="I438" s="6"/>
+    </row>
+    <row r="439" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B439" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="14"/>
+      <c r="F439" s="14"/>
+      <c r="G439" s="14"/>
+      <c r="H439" s="14"/>
+      <c r="I439" s="6"/>
+    </row>
+    <row r="440" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B440" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="14"/>
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="6"/>
+    </row>
+    <row r="441" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="6"/>
+    </row>
+    <row r="442" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B442" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
+      <c r="H442" s="14"/>
+      <c r="I442" s="6"/>
+    </row>
+    <row r="443" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B443" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="14"/>
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
+      <c r="H443" s="14"/>
+      <c r="I443" s="6"/>
+    </row>
+    <row r="444" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B444" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="14"/>
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
+      <c r="H444" s="14"/>
+      <c r="I444" s="6"/>
+    </row>
+    <row r="445" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B445" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="6"/>
+    </row>
+    <row r="446" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="6"/>
+    </row>
+    <row r="447" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B447" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="6"/>
+    </row>
+    <row r="448" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B448" s="5"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="6"/>
+    </row>
+    <row r="449" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B449" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C449" s="19"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="14"/>
+      <c r="F449" s="14"/>
+      <c r="G449" s="14"/>
+      <c r="H449" s="14"/>
+      <c r="I449" s="6"/>
+    </row>
+    <row r="450" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B450" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C450" s="19"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
+      <c r="H450" s="14"/>
+      <c r="I450" s="6"/>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B451" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C451" s="19"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="6"/>
+    </row>
+    <row r="452" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B452" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C452" s="19"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
+      <c r="H452" s="14"/>
+      <c r="I452" s="6"/>
+      <c r="J452" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="453" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B453" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C453" s="19"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
+      <c r="H453" s="14"/>
+      <c r="I453" s="6"/>
+      <c r="J453" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="454" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B454" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C454" s="19"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
+      <c r="H454" s="14"/>
+      <c r="I454" s="6"/>
+    </row>
+    <row r="455" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B455" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C455" s="19"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="14"/>
+      <c r="F455" s="14"/>
+      <c r="G455" s="14"/>
+      <c r="H455" s="14"/>
+      <c r="I455" s="6"/>
+    </row>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B456" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C456" s="19"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="14"/>
+      <c r="F456" s="14"/>
+      <c r="G456" s="14"/>
+      <c r="H456" s="14"/>
+      <c r="I456" s="6"/>
+    </row>
+    <row r="457" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B457" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C457" s="19"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="14"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="14"/>
+      <c r="H457" s="14"/>
+      <c r="I457" s="6"/>
+    </row>
+    <row r="458" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B458" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C458" s="19"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
+      <c r="H458" s="14"/>
+      <c r="I458" s="6"/>
+    </row>
+    <row r="459" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B459" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C459" s="19"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
+      <c r="H459" s="14"/>
+      <c r="I459" s="6"/>
+    </row>
+    <row r="460" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B460" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C460" s="19"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="14"/>
+      <c r="F460" s="14"/>
+      <c r="G460" s="14"/>
+      <c r="H460" s="14"/>
+      <c r="I460" s="6"/>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B461" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C461" s="19"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+      <c r="F461" s="14"/>
+      <c r="G461" s="14"/>
+      <c r="H461" s="14"/>
+      <c r="I461" s="6"/>
+    </row>
+    <row r="462" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B462" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C462" s="19"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="14"/>
+      <c r="F462" s="14"/>
+      <c r="G462" s="14"/>
+      <c r="H462" s="14"/>
+      <c r="I462" s="6"/>
+    </row>
+    <row r="463" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B463" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C463" s="19"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="6"/>
+    </row>
+    <row r="464" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B464" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C464" s="19"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+      <c r="F464" s="14"/>
+      <c r="G464" s="14"/>
+      <c r="H464" s="14"/>
+      <c r="I464" s="6"/>
+    </row>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B465" s="18"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
+      <c r="H465" s="14"/>
+      <c r="I465" s="6"/>
+    </row>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B466" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C466" s="19"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="6"/>
+    </row>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B467" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C467" s="19"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="19"/>
+      <c r="H467" s="19"/>
+      <c r="I467" s="6"/>
+    </row>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B468" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C468" s="19"/>
+      <c r="D468" s="19"/>
+      <c r="E468" s="19"/>
+      <c r="F468" s="19"/>
+      <c r="G468" s="19"/>
+      <c r="H468" s="19"/>
+      <c r="I468" s="6"/>
+    </row>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B469" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C469" s="19"/>
+      <c r="D469" s="19"/>
+      <c r="E469" s="19"/>
+      <c r="F469" s="19"/>
+      <c r="G469" s="19"/>
+      <c r="H469" s="19"/>
+      <c r="I469" s="6"/>
+      <c r="J469" t="s">
+        <v>8</v>
+      </c>
+      <c r="K469" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B470" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C470" s="19"/>
+      <c r="D470" s="19"/>
+      <c r="E470" s="19"/>
+      <c r="F470" s="19"/>
+      <c r="G470" s="19"/>
+      <c r="H470" s="19"/>
+      <c r="I470" s="6"/>
+      <c r="K470" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B471" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C471" s="19"/>
+      <c r="D471" s="19"/>
+      <c r="E471" s="19"/>
+      <c r="F471" s="19"/>
+      <c r="G471" s="19"/>
+      <c r="H471" s="19"/>
+      <c r="I471" s="6"/>
+      <c r="J471" t="s">
+        <v>8</v>
+      </c>
+      <c r="K471" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B472" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C472" s="19"/>
+      <c r="D472" s="19"/>
+      <c r="E472" s="19"/>
+      <c r="F472" s="19"/>
+      <c r="G472" s="19"/>
+      <c r="H472" s="19"/>
+      <c r="I472" s="6"/>
+    </row>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B473" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C473" s="19"/>
+      <c r="D473" s="19"/>
+      <c r="E473" s="19"/>
+      <c r="F473" s="19"/>
+      <c r="G473" s="19"/>
+      <c r="H473" s="19"/>
+      <c r="I473" s="6"/>
+    </row>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B474" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C474" s="19"/>
+      <c r="D474" s="19"/>
+      <c r="E474" s="19"/>
+      <c r="F474" s="19"/>
+      <c r="G474" s="19"/>
+      <c r="H474" s="19"/>
+      <c r="I474" s="6"/>
+    </row>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B475" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C475" s="19"/>
+      <c r="D475" s="19"/>
+      <c r="E475" s="19"/>
+      <c r="F475" s="19"/>
+      <c r="G475" s="19"/>
+      <c r="H475" s="19"/>
+      <c r="I475" s="6"/>
+    </row>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B476" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C476" s="19"/>
+      <c r="D476" s="19"/>
+      <c r="E476" s="19"/>
+      <c r="F476" s="19"/>
+      <c r="G476" s="19"/>
+      <c r="H476" s="19"/>
+      <c r="I476" s="6"/>
+    </row>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B477" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C477" s="19"/>
+      <c r="D477" s="19"/>
+      <c r="E477" s="19"/>
+      <c r="F477" s="19"/>
+      <c r="G477" s="19"/>
+      <c r="H477" s="19"/>
+      <c r="I477" s="6"/>
+    </row>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B478" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C478" s="19"/>
+      <c r="D478" s="19"/>
+      <c r="E478" s="19"/>
+      <c r="F478" s="19"/>
+      <c r="G478" s="19"/>
+      <c r="H478" s="19"/>
+      <c r="I478" s="6"/>
+    </row>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B479" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C479" s="19"/>
+      <c r="D479" s="19"/>
+      <c r="E479" s="19"/>
+      <c r="F479" s="19"/>
+      <c r="G479" s="19"/>
+      <c r="H479" s="19"/>
+      <c r="I479" s="6"/>
+    </row>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B480" s="18"/>
+      <c r="C480" s="19"/>
+      <c r="D480" s="19"/>
+      <c r="E480" s="19"/>
+      <c r="F480" s="19"/>
+      <c r="G480" s="19"/>
+      <c r="H480" s="19"/>
+      <c r="I480" s="6"/>
+    </row>
+    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B481" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C481" s="19"/>
+      <c r="D481" s="19"/>
+      <c r="E481" s="19"/>
+      <c r="F481" s="19"/>
+      <c r="G481" s="19"/>
+      <c r="H481" s="15"/>
+      <c r="I481" s="13"/>
+    </row>
+    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B482" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C482" s="19"/>
+      <c r="D482" s="19"/>
+      <c r="E482" s="19"/>
+      <c r="F482" s="19"/>
+      <c r="G482" s="19"/>
+      <c r="H482" s="15"/>
+      <c r="I482" s="13"/>
+    </row>
+    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B483" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C483" s="19"/>
+      <c r="D483" s="19"/>
+      <c r="E483" s="19"/>
+      <c r="F483" s="19"/>
+      <c r="G483" s="19"/>
+      <c r="H483" s="15"/>
+      <c r="I483" s="13"/>
+    </row>
+    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B484" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C484" s="19"/>
+      <c r="D484" s="19"/>
+      <c r="E484" s="19"/>
+      <c r="F484" s="19"/>
+      <c r="G484" s="19"/>
+      <c r="H484" s="15"/>
+      <c r="I484" s="13"/>
+    </row>
+    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B485" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C485" s="19"/>
+      <c r="D485" s="19"/>
+      <c r="E485" s="19"/>
+      <c r="F485" s="19"/>
+      <c r="G485" s="19"/>
+      <c r="H485" s="15"/>
+      <c r="I485" s="13"/>
+      <c r="J485" t="s">
+        <v>8</v>
+      </c>
+      <c r="K485" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B486" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C486" s="19"/>
+      <c r="D486" s="19"/>
+      <c r="E486" s="19"/>
+      <c r="F486" s="19"/>
+      <c r="G486" s="19"/>
+      <c r="H486" s="15"/>
+      <c r="I486" s="13"/>
+    </row>
+    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B487" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C487" s="19"/>
+      <c r="D487" s="19"/>
+      <c r="E487" s="19"/>
+      <c r="F487" s="19"/>
+      <c r="G487" s="19"/>
+      <c r="H487" s="15"/>
+      <c r="I487" s="13"/>
+    </row>
+    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B488" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C488" s="19"/>
+      <c r="D488" s="19"/>
+      <c r="E488" s="19"/>
+      <c r="F488" s="19"/>
+      <c r="G488" s="19"/>
+      <c r="H488" s="15"/>
+      <c r="I488" s="13"/>
+    </row>
+    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B489" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C489" s="19"/>
+      <c r="D489" s="19"/>
+      <c r="E489" s="19"/>
+      <c r="F489" s="19"/>
+      <c r="G489" s="19"/>
+      <c r="H489" s="15"/>
+      <c r="I489" s="13"/>
+    </row>
+    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B490" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C490" s="19"/>
+      <c r="D490" s="19"/>
+      <c r="E490" s="19"/>
+      <c r="F490" s="19"/>
+      <c r="G490" s="19"/>
+      <c r="H490" s="15"/>
+      <c r="I490" s="13"/>
+    </row>
+    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B491" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C491" s="19"/>
+      <c r="D491" s="19"/>
+      <c r="E491" s="19"/>
+      <c r="F491" s="19"/>
+      <c r="G491" s="19"/>
+      <c r="H491" s="15"/>
+      <c r="I491" s="13"/>
+    </row>
+    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B492" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C492" s="19"/>
+      <c r="D492" s="19"/>
+      <c r="E492" s="19"/>
+      <c r="F492" s="19"/>
+      <c r="G492" s="19"/>
+      <c r="H492" s="15"/>
+      <c r="I492" s="13"/>
+    </row>
+    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B493" s="18"/>
+      <c r="C493" s="19"/>
+      <c r="D493" s="19"/>
+      <c r="E493" s="19"/>
+      <c r="F493" s="19"/>
+      <c r="G493" s="19"/>
+      <c r="H493" s="15"/>
+      <c r="I493" s="13"/>
+    </row>
+    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B494" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C494" s="19"/>
+      <c r="D494" s="19"/>
+      <c r="E494" s="15"/>
+      <c r="F494" s="15"/>
+      <c r="G494" s="15"/>
+      <c r="H494" s="15"/>
+      <c r="I494" s="13"/>
+    </row>
+    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B495" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C495" s="19"/>
+      <c r="D495" s="19"/>
+      <c r="E495" s="15"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="15"/>
+      <c r="H495" s="15"/>
+      <c r="I495" s="13"/>
+    </row>
+    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B496" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C496" s="19"/>
+      <c r="D496" s="19"/>
+      <c r="E496" s="15"/>
+      <c r="F496" s="15"/>
+      <c r="G496" s="15"/>
+      <c r="H496" s="15"/>
+      <c r="I496" s="13"/>
+    </row>
+    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B497" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C497" s="19"/>
+      <c r="D497" s="19"/>
+      <c r="E497" s="15"/>
+      <c r="F497" s="15"/>
+      <c r="G497" s="15"/>
+      <c r="H497" s="15"/>
+      <c r="I497" s="13"/>
+      <c r="J497" t="s">
+        <v>8</v>
+      </c>
+      <c r="K497" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B498" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C498" s="19"/>
+      <c r="D498" s="19"/>
+      <c r="E498" s="15"/>
+      <c r="F498" s="15"/>
+      <c r="G498" s="15"/>
+      <c r="H498" s="15"/>
+      <c r="I498" s="13"/>
+    </row>
+    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B499" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C499" s="15"/>
+      <c r="D499" s="19"/>
+      <c r="E499" s="15"/>
+      <c r="F499" s="15"/>
+      <c r="G499" s="15"/>
+      <c r="H499" s="15"/>
+      <c r="I499" s="13"/>
+    </row>
+    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B500" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C500" s="15"/>
+      <c r="D500" s="19"/>
+      <c r="E500" s="15"/>
+      <c r="F500" s="15"/>
+      <c r="G500" s="15"/>
+      <c r="H500" s="15"/>
+      <c r="I500" s="13"/>
+    </row>
+    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B501" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C501" s="19"/>
+      <c r="D501" s="19"/>
+      <c r="E501" s="15"/>
+      <c r="F501" s="15"/>
+      <c r="G501" s="15"/>
+      <c r="H501" s="15"/>
+      <c r="I501" s="13"/>
+    </row>
+    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B502" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C502" s="19"/>
+      <c r="D502" s="19"/>
+      <c r="E502" s="15"/>
+      <c r="F502" s="15"/>
+      <c r="G502" s="15"/>
+      <c r="H502" s="15"/>
+      <c r="I502" s="13"/>
+      <c r="J502" t="s">
+        <v>8</v>
+      </c>
+      <c r="K502" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B503" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C503" s="19"/>
+      <c r="D503" s="19"/>
+      <c r="E503" s="15"/>
+      <c r="F503" s="15"/>
+      <c r="G503" s="15"/>
+      <c r="H503" s="15"/>
+      <c r="I503" s="13"/>
+    </row>
+    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B504" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C504" s="19"/>
+      <c r="D504" s="19"/>
+      <c r="E504" s="15"/>
+      <c r="F504" s="15"/>
+      <c r="G504" s="15"/>
+      <c r="H504" s="15"/>
+      <c r="I504" s="13"/>
+    </row>
+    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B505" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C505" s="19"/>
+      <c r="D505" s="19"/>
+      <c r="E505" s="15"/>
+      <c r="F505" s="15"/>
+      <c r="G505" s="15"/>
+      <c r="H505" s="15"/>
+      <c r="I505" s="13"/>
+      <c r="J505" t="s">
+        <v>8</v>
+      </c>
+      <c r="K505" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B506" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C506" s="19"/>
+      <c r="D506" s="19"/>
+      <c r="E506" s="15"/>
+      <c r="F506" s="15"/>
+      <c r="G506" s="15"/>
+      <c r="H506" s="15"/>
+      <c r="I506" s="13"/>
+    </row>
+    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B507" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C507" s="19"/>
+      <c r="D507" s="19"/>
+      <c r="E507" s="15"/>
+      <c r="F507" s="15"/>
+      <c r="G507" s="15"/>
+      <c r="H507" s="15"/>
+      <c r="I507" s="13"/>
+    </row>
+    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B508" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C508" s="19"/>
+      <c r="D508" s="19"/>
+      <c r="E508" s="15"/>
+      <c r="F508" s="15"/>
+      <c r="G508" s="15"/>
+      <c r="H508" s="15"/>
+      <c r="I508" s="13"/>
+    </row>
+    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B509" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C509" s="19"/>
+      <c r="D509" s="19"/>
+      <c r="E509" s="15"/>
+      <c r="F509" s="15"/>
+      <c r="G509" s="15"/>
+      <c r="H509" s="15"/>
+      <c r="I509" s="13"/>
+    </row>
+    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B510" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C510" s="19"/>
+      <c r="D510" s="19"/>
+      <c r="E510" s="15"/>
+      <c r="F510" s="15"/>
+      <c r="G510" s="15"/>
+      <c r="H510" s="15"/>
+      <c r="I510" s="13"/>
+    </row>
+    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B511" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C511" s="19"/>
+      <c r="D511" s="19"/>
+      <c r="E511" s="15"/>
+      <c r="F511" s="15"/>
+      <c r="G511" s="15"/>
+      <c r="H511" s="15"/>
+      <c r="I511" s="13"/>
+    </row>
+    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B512" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C512" s="19"/>
+      <c r="D512" s="19"/>
+      <c r="E512" s="15"/>
+      <c r="F512" s="15"/>
+      <c r="G512" s="15"/>
+      <c r="H512" s="15"/>
+      <c r="I512" s="13"/>
+    </row>
+    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B513" s="18"/>
+      <c r="C513" s="19"/>
+      <c r="D513" s="19"/>
+      <c r="E513" s="15"/>
+      <c r="F513" s="15"/>
+      <c r="G513" s="15"/>
+      <c r="H513" s="15"/>
+      <c r="I513" s="13"/>
+    </row>
+    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B514" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C514" s="15"/>
+      <c r="D514" s="15"/>
+      <c r="E514" s="15"/>
+      <c r="F514" s="15"/>
+      <c r="G514" s="15"/>
+      <c r="H514" s="15"/>
+      <c r="I514" s="13"/>
+    </row>
+    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B515" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C515" s="15"/>
+      <c r="D515" s="15"/>
+      <c r="E515" s="15"/>
+      <c r="F515" s="15"/>
+      <c r="G515" s="15"/>
+      <c r="H515" s="15"/>
+      <c r="I515" s="13"/>
+    </row>
+    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B516" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C516" s="15"/>
+      <c r="D516" s="15"/>
+      <c r="E516" s="15"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="15"/>
+      <c r="H516" s="15"/>
+      <c r="I516" s="13"/>
+    </row>
+    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B517" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C517" s="15"/>
+      <c r="D517" s="15"/>
+      <c r="E517" s="15"/>
+      <c r="F517" s="15"/>
+      <c r="G517" s="15"/>
+      <c r="H517" s="15"/>
+      <c r="I517" s="13"/>
+    </row>
+    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B518" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C518" s="15"/>
+      <c r="D518" s="15"/>
+      <c r="E518" s="15"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="15"/>
+      <c r="H518" s="15"/>
+      <c r="I518" s="13"/>
+    </row>
+    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B519" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C519" s="15"/>
+      <c r="D519" s="15"/>
+      <c r="E519" s="15"/>
+      <c r="F519" s="15"/>
+      <c r="G519" s="15"/>
+      <c r="H519" s="15"/>
+      <c r="I519" s="13"/>
+      <c r="J519" t="s">
+        <v>8</v>
+      </c>
+      <c r="K519" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B520" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C520" s="15"/>
+      <c r="D520" s="15"/>
+      <c r="E520" s="15"/>
+      <c r="F520" s="15"/>
+      <c r="G520" s="15"/>
+      <c r="H520" s="15"/>
+      <c r="I520" s="13"/>
+      <c r="J520" t="s">
+        <v>8</v>
+      </c>
+      <c r="K520" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B521" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C521" s="15"/>
+      <c r="D521" s="15"/>
+      <c r="E521" s="15"/>
+      <c r="F521" s="15"/>
+      <c r="G521" s="15"/>
+      <c r="H521" s="15"/>
+      <c r="I521" s="13"/>
+      <c r="J521" t="s">
+        <v>8</v>
+      </c>
+      <c r="K521" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B522" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C522" s="15"/>
+      <c r="D522" s="15"/>
+      <c r="E522" s="15"/>
+      <c r="F522" s="15"/>
+      <c r="G522" s="15"/>
+      <c r="H522" s="15"/>
+      <c r="I522" s="13"/>
+      <c r="K522" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B523" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C523" s="15"/>
+      <c r="D523" s="15"/>
+      <c r="E523" s="15"/>
+      <c r="F523" s="15"/>
+      <c r="G523" s="15"/>
+      <c r="H523" s="15"/>
+      <c r="I523" s="13"/>
+    </row>
+    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B524" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C524" s="15"/>
+      <c r="D524" s="15"/>
+      <c r="E524" s="15"/>
+      <c r="F524" s="15"/>
+      <c r="G524" s="15"/>
+      <c r="H524" s="15"/>
+      <c r="I524" s="13"/>
+    </row>
+    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B525" s="18"/>
+      <c r="C525" s="15"/>
+      <c r="D525" s="15"/>
+      <c r="E525" s="15"/>
+      <c r="F525" s="15"/>
+      <c r="G525" s="15"/>
+      <c r="H525" s="15"/>
+      <c r="I525" s="13"/>
+    </row>
+    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B526" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C526" s="15"/>
+      <c r="D526" s="15"/>
+      <c r="E526" s="15"/>
+      <c r="F526" s="15"/>
+      <c r="G526" s="15"/>
+      <c r="H526" s="15"/>
+      <c r="I526" s="13"/>
+    </row>
+    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B527" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C527" s="15"/>
+      <c r="D527" s="15"/>
+      <c r="E527" s="15"/>
+      <c r="F527" s="15"/>
+      <c r="G527" s="15"/>
+      <c r="H527" s="15"/>
+      <c r="I527" s="13"/>
+    </row>
+    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B528" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C528" s="15"/>
+      <c r="D528" s="15"/>
+      <c r="E528" s="15"/>
+      <c r="F528" s="15"/>
+      <c r="G528" s="15"/>
+      <c r="H528" s="15"/>
+      <c r="I528" s="13"/>
+    </row>
+    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B529" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C529" s="15"/>
+      <c r="D529" s="15"/>
+      <c r="E529" s="15"/>
+      <c r="F529" s="15"/>
+      <c r="G529" s="15"/>
+      <c r="H529" s="15"/>
+      <c r="I529" s="13"/>
+    </row>
+    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B530" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C530" s="15"/>
+      <c r="D530" s="15"/>
+      <c r="E530" s="15"/>
+      <c r="F530" s="15"/>
+      <c r="G530" s="15"/>
+      <c r="H530" s="15"/>
+      <c r="I530" s="13"/>
+      <c r="J530" t="s">
+        <v>8</v>
+      </c>
+      <c r="K530" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B531" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C531" s="15"/>
+      <c r="D531" s="15"/>
+      <c r="E531" s="15"/>
+      <c r="F531" s="15"/>
+      <c r="G531" s="15"/>
+      <c r="H531" s="15"/>
+      <c r="I531" s="13"/>
+    </row>
+    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B532" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C532" s="15"/>
+      <c r="D532" s="15"/>
+      <c r="E532" s="15"/>
+      <c r="F532" s="15"/>
+      <c r="G532" s="15"/>
+      <c r="H532" s="15"/>
+      <c r="I532" s="13"/>
+      <c r="J532" t="s">
+        <v>8</v>
+      </c>
+      <c r="K532" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B533" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C533" s="15"/>
+      <c r="D533" s="15"/>
+      <c r="E533" s="15"/>
+      <c r="F533" s="15"/>
+      <c r="G533" s="15"/>
+      <c r="H533" s="15"/>
+      <c r="I533" s="13"/>
+      <c r="J533" t="s">
+        <v>8</v>
+      </c>
+      <c r="K533" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B534" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C534" s="15"/>
+      <c r="D534" s="15"/>
+      <c r="E534" s="15"/>
+      <c r="F534" s="15"/>
+      <c r="G534" s="15"/>
+      <c r="H534" s="15"/>
+      <c r="I534" s="13"/>
+      <c r="J534" t="s">
+        <v>8</v>
+      </c>
+      <c r="K534" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B535" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C535" s="15"/>
+      <c r="D535" s="15"/>
+      <c r="E535" s="15"/>
+      <c r="F535" s="15"/>
+      <c r="G535" s="15"/>
+      <c r="H535" s="15"/>
+      <c r="I535" s="13"/>
+    </row>
+    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B536" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C536" s="15"/>
+      <c r="D536" s="15"/>
+      <c r="E536" s="15"/>
+      <c r="F536" s="15"/>
+      <c r="G536" s="15"/>
+      <c r="H536" s="15"/>
+      <c r="I536" s="13"/>
+    </row>
+    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B537" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C537" s="15"/>
+      <c r="D537" s="15"/>
+      <c r="E537" s="15"/>
+      <c r="F537" s="15"/>
+      <c r="G537" s="15"/>
+      <c r="H537" s="15"/>
+      <c r="I537" s="13"/>
+      <c r="J537" t="s">
+        <v>8</v>
+      </c>
+      <c r="K537" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B538" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C538" s="15"/>
+      <c r="D538" s="15"/>
+      <c r="E538" s="15"/>
+      <c r="F538" s="15"/>
+      <c r="G538" s="15"/>
+      <c r="H538" s="15"/>
+      <c r="I538" s="13"/>
+    </row>
+    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B539" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C539" s="15"/>
+      <c r="D539" s="15"/>
+      <c r="E539" s="15"/>
+      <c r="F539" s="15"/>
+      <c r="G539" s="15"/>
+      <c r="H539" s="15"/>
+      <c r="I539" s="13"/>
+    </row>
+    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B540" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C540" s="15"/>
+      <c r="D540" s="15"/>
+      <c r="E540" s="15"/>
+      <c r="F540" s="15"/>
+      <c r="G540" s="15"/>
+      <c r="H540" s="15"/>
+      <c r="I540" s="13"/>
+    </row>
+    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B541" s="18"/>
+      <c r="C541" s="15"/>
+      <c r="D541" s="15"/>
+      <c r="E541" s="15"/>
+      <c r="F541" s="15"/>
+      <c r="G541" s="15"/>
+      <c r="H541" s="15"/>
+      <c r="I541" s="13"/>
+    </row>
+    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B542" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C542" s="14"/>
+      <c r="D542" s="14"/>
+      <c r="E542" s="14"/>
+      <c r="F542" s="14"/>
+      <c r="G542" s="14"/>
+      <c r="H542" s="14"/>
+      <c r="I542" s="6"/>
+    </row>
+    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B543" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C543" s="14"/>
+      <c r="D543" s="14"/>
+      <c r="E543" s="14"/>
+      <c r="F543" s="14"/>
+      <c r="G543" s="14"/>
+      <c r="H543" s="14"/>
+      <c r="I543" s="6"/>
+    </row>
+    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B544" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C544" s="14"/>
+      <c r="D544" s="14"/>
+      <c r="E544" s="14"/>
+      <c r="F544" s="14"/>
+      <c r="G544" s="14"/>
+      <c r="H544" s="14"/>
+      <c r="I544" s="6"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B545" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C545" s="14"/>
+      <c r="D545" s="14"/>
+      <c r="E545" s="14"/>
+      <c r="F545" s="14"/>
+      <c r="G545" s="14"/>
+      <c r="H545" s="14"/>
+      <c r="I545" s="6"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B546" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C546" s="14"/>
+      <c r="D546" s="14"/>
+      <c r="E546" s="14"/>
+      <c r="F546" s="14"/>
+      <c r="G546" s="14"/>
+      <c r="H546" s="14"/>
+      <c r="I546" s="6"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B547" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C547" s="14"/>
+      <c r="D547" s="14"/>
+      <c r="E547" s="14"/>
+      <c r="F547" s="14"/>
+      <c r="G547" s="14"/>
+      <c r="H547" s="14"/>
+      <c r="I547" s="6"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B548" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C548" s="14"/>
+      <c r="D548" s="14"/>
+      <c r="E548" s="14"/>
+      <c r="F548" s="14"/>
+      <c r="G548" s="14"/>
+      <c r="H548" s="14"/>
+      <c r="I548" s="6"/>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B549" s="12"/>
+      <c r="C549" s="14"/>
+      <c r="D549" s="14"/>
+      <c r="E549" s="14"/>
+      <c r="F549" s="14"/>
+      <c r="G549" s="14"/>
+      <c r="H549" s="14"/>
+      <c r="I549" s="6"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B550" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C550" s="14"/>
+      <c r="D550" s="14"/>
+      <c r="E550" s="14"/>
+      <c r="F550" s="14"/>
+      <c r="G550" s="14"/>
+      <c r="H550" s="14"/>
+      <c r="I550" s="6"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B551" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C551" s="14"/>
+      <c r="D551" s="14"/>
+      <c r="E551" s="14"/>
+      <c r="F551" s="14"/>
+      <c r="G551" s="14"/>
+      <c r="H551" s="14"/>
+      <c r="I551" s="6"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B552" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C552" s="14"/>
+      <c r="D552" s="14"/>
+      <c r="E552" s="14"/>
+      <c r="F552" s="14"/>
+      <c r="G552" s="14"/>
+      <c r="H552" s="14"/>
+      <c r="I552" s="6"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B553" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C553" s="14"/>
+      <c r="D553" s="14"/>
+      <c r="E553" s="14"/>
+      <c r="F553" s="14"/>
+      <c r="G553" s="14"/>
+      <c r="H553" s="14"/>
+      <c r="I553" s="6"/>
+      <c r="J553" t="s">
+        <v>8</v>
+      </c>
+      <c r="K553" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B554" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C554" s="14"/>
+      <c r="D554" s="14"/>
+      <c r="E554" s="14"/>
+      <c r="F554" s="14"/>
+      <c r="G554" s="14"/>
+      <c r="H554" s="14"/>
+      <c r="I554" s="6"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B555" s="7"/>
+      <c r="C555" s="8"/>
+      <c r="D555" s="8"/>
+      <c r="E555" s="8"/>
+      <c r="F555" s="8"/>
+      <c r="G555" s="8"/>
+      <c r="H555" s="8"/>
+      <c r="I555" s="10"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P573" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B577" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" s="3"/>
+      <c r="D577" s="3"/>
+      <c r="E577" s="3"/>
+      <c r="F577" s="3"/>
+      <c r="G577" s="4"/>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B578" s="5"/>
+      <c r="C578" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" s="14"/>
+      <c r="E578" s="14"/>
+      <c r="F578" s="14"/>
+      <c r="G578" s="6"/>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B579" s="5"/>
+      <c r="C579" s="14"/>
+      <c r="D579" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E579" s="14"/>
+      <c r="F579" s="14"/>
+      <c r="G579" s="6"/>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B580" s="5"/>
+      <c r="C580" s="14"/>
+      <c r="D580" s="14"/>
+      <c r="E580" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F580" s="14"/>
+      <c r="G580" s="6"/>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B581" s="5"/>
+      <c r="C581" s="14"/>
+      <c r="D581" s="14"/>
+      <c r="E581" s="14"/>
+      <c r="F581" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G581" s="6"/>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B582" s="5"/>
+      <c r="C582" s="14"/>
+      <c r="D582" s="14"/>
+      <c r="E582" s="14"/>
+      <c r="F582" s="14"/>
+      <c r="G582" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B583" s="5"/>
+      <c r="C583" s="14"/>
+      <c r="D583" s="14"/>
+      <c r="E583" s="14"/>
+      <c r="F583" s="14"/>
+      <c r="G583" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B584" s="5"/>
+      <c r="C584" s="14"/>
+      <c r="D584" s="14"/>
+      <c r="E584" s="14"/>
+      <c r="F584" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G584" s="6"/>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B585" s="5"/>
+      <c r="C585" s="14"/>
+      <c r="D585" s="14"/>
+      <c r="E585" s="14"/>
+      <c r="F585" s="14"/>
+      <c r="G585" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B586" s="5"/>
+      <c r="C586" s="14"/>
+      <c r="D586" s="14"/>
+      <c r="E586" s="14"/>
+      <c r="F586" s="14"/>
+      <c r="G586" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B587" s="5"/>
+      <c r="C587" s="14"/>
+      <c r="D587" s="14"/>
+      <c r="E587" s="14"/>
+      <c r="F587" s="14"/>
+      <c r="G587" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B588" s="5"/>
+      <c r="C588" s="14"/>
+      <c r="D588" s="14"/>
+      <c r="E588" s="14"/>
+      <c r="F588" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G588" s="6"/>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B589" s="5"/>
+      <c r="C589" s="14"/>
+      <c r="D589" s="14"/>
+      <c r="E589" s="14"/>
+      <c r="F589" s="14"/>
+      <c r="G589" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B590" s="5"/>
+      <c r="C590" s="14"/>
+      <c r="D590" s="14"/>
+      <c r="E590" s="14"/>
+      <c r="F590" s="14"/>
+      <c r="G590" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B591" s="5"/>
+      <c r="C591" s="14"/>
+      <c r="D591" s="14"/>
+      <c r="E591" s="14"/>
+      <c r="F591" s="14"/>
+      <c r="G591" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B592" s="5"/>
+      <c r="C592" s="14"/>
+      <c r="D592" s="14"/>
+      <c r="E592" s="14"/>
+      <c r="F592" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G592" s="6"/>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B593" s="5"/>
+      <c r="C593" s="14"/>
+      <c r="D593" s="14"/>
+      <c r="E593" s="14"/>
+      <c r="F593" s="14"/>
+      <c r="G593" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B594" s="5"/>
+      <c r="C594" s="14"/>
+      <c r="D594" s="14"/>
+      <c r="E594" s="14"/>
+      <c r="F594" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G594" s="6"/>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B595" s="5"/>
+      <c r="C595" s="14"/>
+      <c r="D595" s="14"/>
+      <c r="E595" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F595" s="14"/>
+      <c r="G595" s="6"/>
+      <c r="I595" t="s">
+        <v>8</v>
+      </c>
+      <c r="J595" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B596" s="5"/>
+      <c r="C596" s="14"/>
+      <c r="D596" s="14"/>
+      <c r="E596" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F596" s="14"/>
+      <c r="G596" s="6"/>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B597" s="5"/>
+      <c r="C597" s="14"/>
+      <c r="D597" s="14"/>
+      <c r="E597" s="14"/>
+      <c r="F597" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G597" s="6"/>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B598" s="5"/>
+      <c r="C598" s="14"/>
+      <c r="D598" s="14"/>
+      <c r="E598" s="14"/>
+      <c r="F598" s="14"/>
+      <c r="G598" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B599" s="5"/>
+      <c r="C599" s="14"/>
+      <c r="D599" s="14"/>
+      <c r="E599" s="14"/>
+      <c r="F599" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G599" s="6"/>
+      <c r="I599" t="s">
+        <v>8</v>
+      </c>
+      <c r="J599" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B600" s="5"/>
+      <c r="C600" s="14"/>
+      <c r="D600" s="14"/>
+      <c r="E600" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F600" s="14"/>
+      <c r="G600" s="6"/>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B601" s="7"/>
+      <c r="C601" s="8"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F601" s="8"/>
+      <c r="G601" s="10"/>
+      <c r="I601" t="s">
+        <v>8</v>
+      </c>
+      <c r="J601" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B621" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C621" s="3"/>
+      <c r="D621" s="4"/>
+      <c r="E621" s="14"/>
+      <c r="F621" s="14"/>
+      <c r="G621" s="14"/>
+      <c r="H621" s="14"/>
+      <c r="I621" s="14"/>
+      <c r="J621" s="14"/>
+      <c r="K621" s="14"/>
+      <c r="L621" s="14"/>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B622" s="7"/>
+      <c r="C622" s="8"/>
+      <c r="D622" s="10"/>
+      <c r="E622" s="14"/>
+      <c r="F622" s="14"/>
+      <c r="G622" s="14"/>
+      <c r="H622" s="14"/>
+      <c r="I622" s="14"/>
+      <c r="J622" s="14"/>
+      <c r="K622" s="14"/>
+      <c r="L622" s="14"/>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="D623" s="14"/>
+      <c r="E623" s="14"/>
+      <c r="F623" s="14"/>
+      <c r="G623" s="14"/>
+      <c r="H623" s="14"/>
+      <c r="I623" s="14"/>
+      <c r="J623" s="14"/>
+      <c r="K623" s="14"/>
+      <c r="L623" s="14"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>